--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto_Fiets.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto_Fiets.xlsx
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.7382178538040829</v>
+        <v>0.738217853804083</v>
       </c>
       <c r="C4">
         <v>0.7094978488344654</v>
       </c>
       <c r="D4">
-        <v>0.8695055594474078</v>
+        <v>0.8695055594474079</v>
       </c>
       <c r="E4">
-        <v>0.8920694870009451</v>
+        <v>0.892069487000945</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -445,10 +445,10 @@
         <v>0.7094978488344655</v>
       </c>
       <c r="D5">
-        <v>0.8695055594474078</v>
+        <v>0.8695055594474079</v>
       </c>
       <c r="E5">
-        <v>0.8920694870009451</v>
+        <v>0.8920694870009449</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.738217853804083</v>
+        <v>0.7382178538040831</v>
       </c>
       <c r="C6">
         <v>0.7094978488344654</v>
       </c>
       <c r="D6">
-        <v>0.8695055594474078</v>
+        <v>0.869505559447408</v>
       </c>
       <c r="E6">
         <v>0.8920694870009451</v>
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.7248120343360605</v>
+        <v>0.7248120343360603</v>
       </c>
       <c r="C7">
         <v>0.6618079109104622</v>
@@ -490,13 +490,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.7248120343360605</v>
+        <v>0.7248120343360603</v>
       </c>
       <c r="C8">
         <v>0.6618079109104622</v>
       </c>
       <c r="D8">
-        <v>0.7950859844758482</v>
+        <v>0.7950859844758483</v>
       </c>
       <c r="E8">
         <v>0.8249103751294619</v>
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.7248120343360605</v>
+        <v>0.7248120343360603</v>
       </c>
       <c r="C10">
         <v>0.6618079109104622</v>
       </c>
       <c r="D10">
-        <v>0.7950859844758483</v>
+        <v>0.7950859844758482</v>
       </c>
       <c r="E10">
-        <v>0.8249103751294616</v>
+        <v>0.8249103751294619</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -547,10 +547,10 @@
         <v>0.6618079109104622</v>
       </c>
       <c r="D11">
-        <v>0.7950859844758482</v>
+        <v>0.7950859844758483</v>
       </c>
       <c r="E11">
-        <v>0.8249103751294617</v>
+        <v>0.8249103751294619</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,7 +558,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.6996128980519531</v>
+        <v>0.6996128980519534</v>
       </c>
       <c r="C12">
         <v>0.6770156472485566</v>
@@ -567,7 +567,7 @@
         <v>0.8373289346927927</v>
       </c>
       <c r="E12">
-        <v>0.8781674546026204</v>
+        <v>0.8781674546026202</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,7 +575,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.8188933688926727</v>
+        <v>0.8188933688926726</v>
       </c>
       <c r="C13">
         <v>0.7924548708408297</v>
@@ -601,7 +601,7 @@
         <v>0.8373289346927927</v>
       </c>
       <c r="E14">
-        <v>0.8781674546026204</v>
+        <v>0.8781674546026202</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -615,10 +615,10 @@
         <v>0.6618079109104621</v>
       </c>
       <c r="D15">
-        <v>0.7950859844758483</v>
+        <v>0.7950859844758482</v>
       </c>
       <c r="E15">
-        <v>0.8249103751294617</v>
+        <v>0.8249103751294619</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -643,16 +643,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.6996128980519533</v>
+        <v>0.6996128980519534</v>
       </c>
       <c r="C17">
-        <v>0.6770156472485566</v>
+        <v>0.6770156472485565</v>
       </c>
       <c r="D17">
-        <v>0.8373289346927928</v>
+        <v>0.8373289346927927</v>
       </c>
       <c r="E17">
-        <v>0.8781674546026204</v>
+        <v>0.8781674546026202</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -683,7 +683,7 @@
         <v>0.621361965006015</v>
       </c>
       <c r="D19">
-        <v>0.7242677050524912</v>
+        <v>0.7242677050524911</v>
       </c>
       <c r="E19">
         <v>0.7587839159844888</v>
@@ -697,10 +697,10 @@
         <v>0.7131731751472505</v>
       </c>
       <c r="C20">
-        <v>0.6213619650060151</v>
+        <v>0.621361965006015</v>
       </c>
       <c r="D20">
-        <v>0.7242677050524911</v>
+        <v>0.7242677050524909</v>
       </c>
       <c r="E20">
         <v>0.7587839159844888</v>
@@ -717,10 +717,10 @@
         <v>0.621361965006015</v>
       </c>
       <c r="D21">
-        <v>0.7242677050524912</v>
+        <v>0.7242677050524911</v>
       </c>
       <c r="E21">
-        <v>0.7587839159844887</v>
+        <v>0.7587839159844888</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -728,7 +728,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.9525919504975194</v>
+        <v>0.9525919504975193</v>
       </c>
       <c r="C22">
         <v>0.9631862724555603</v>
@@ -748,7 +748,7 @@
         <v>0.7971071188531877</v>
       </c>
       <c r="C23">
-        <v>0.7331223583787193</v>
+        <v>0.7331223583787192</v>
       </c>
       <c r="D23">
         <v>0.8488118725727054</v>
@@ -768,7 +768,7 @@
         <v>0.5975274173401545</v>
       </c>
       <c r="D24">
-        <v>0.720847166844067</v>
+        <v>0.7208471668440671</v>
       </c>
       <c r="E24">
         <v>0.7667594830293722</v>
@@ -788,7 +788,7 @@
         <v>0.7208471668440671</v>
       </c>
       <c r="E25">
-        <v>0.7667594830293724</v>
+        <v>0.7667594830293722</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -802,10 +802,10 @@
         <v>0.5975274173401545</v>
       </c>
       <c r="D26">
-        <v>0.720847166844067</v>
+        <v>0.7208471668440671</v>
       </c>
       <c r="E26">
-        <v>0.7667594830293724</v>
+        <v>0.7667594830293722</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -819,7 +819,7 @@
         <v>0.76285976809141</v>
       </c>
       <c r="D27">
-        <v>0.8990879249167311</v>
+        <v>0.8990879249167312</v>
       </c>
       <c r="E27">
         <v>0.9072532578547872</v>
@@ -867,7 +867,7 @@
         <v>0.7494133231036466</v>
       </c>
       <c r="C30">
-        <v>0.7717334490927471</v>
+        <v>0.771733449092747</v>
       </c>
       <c r="D30">
         <v>0.8489784522420882</v>
@@ -881,7 +881,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.7494133231036466</v>
+        <v>0.7494133231036465</v>
       </c>
       <c r="C31">
         <v>0.7717334490927471</v>
@@ -901,13 +901,13 @@
         <v>0.8385762917044487</v>
       </c>
       <c r="C32">
-        <v>0.8846565872241927</v>
+        <v>0.8846565872241925</v>
       </c>
       <c r="D32">
         <v>0.9593376332575703</v>
       </c>
       <c r="E32">
-        <v>0.9088814855990247</v>
+        <v>0.9088814855990246</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -918,7 +918,7 @@
         <v>0.7494133231036466</v>
       </c>
       <c r="C33">
-        <v>0.7717334490927471</v>
+        <v>0.771733449092747</v>
       </c>
       <c r="D33">
         <v>0.8489784522420882</v>
@@ -941,7 +941,7 @@
         <v>1.135134180493891</v>
       </c>
       <c r="E34">
-        <v>1.030995497254175</v>
+        <v>1.030995497254174</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -986,13 +986,13 @@
         <v>0.7733083108464334</v>
       </c>
       <c r="C37">
-        <v>0.7790912287356094</v>
+        <v>0.7790912287356092</v>
       </c>
       <c r="D37">
-        <v>0.8419921298435795</v>
+        <v>0.8419921298435796</v>
       </c>
       <c r="E37">
-        <v>0.8208724753204293</v>
+        <v>0.8208724753204292</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1003,7 +1003,7 @@
         <v>0.7733083108464334</v>
       </c>
       <c r="C38">
-        <v>0.7790912287356095</v>
+        <v>0.7790912287356093</v>
       </c>
       <c r="D38">
         <v>0.8419921298435795</v>
@@ -1017,16 +1017,16 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.9321591389655349</v>
+        <v>0.932159138965535</v>
       </c>
       <c r="C39">
-        <v>0.9571844322135793</v>
+        <v>0.9571844322135792</v>
       </c>
       <c r="D39">
         <v>1.003014788518752</v>
       </c>
       <c r="E39">
-        <v>0.9385373563127695</v>
+        <v>0.9385373563127696</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1034,7 +1034,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1.097459955619619</v>
+        <v>1.09745995561962</v>
       </c>
       <c r="C40">
         <v>1.149923325183302</v>
@@ -1071,7 +1071,7 @@
         <v>0.7991533574099873</v>
       </c>
       <c r="C42">
-        <v>0.8345995860731052</v>
+        <v>0.8345995860731051</v>
       </c>
       <c r="D42">
         <v>0.9162086905157824</v>
@@ -1085,16 +1085,16 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.8863347281784658</v>
+        <v>0.8863347281784659</v>
       </c>
       <c r="C43">
-        <v>0.961395673850969</v>
+        <v>0.9613956738509688</v>
       </c>
       <c r="D43">
         <v>1.024870478053783</v>
       </c>
       <c r="E43">
-        <v>0.966147414890606</v>
+        <v>0.9661474148906061</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1102,10 +1102,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.8644688719841752</v>
+        <v>0.8644688719841753</v>
       </c>
       <c r="C44">
-        <v>0.97565803061625</v>
+        <v>0.9756580306162499</v>
       </c>
       <c r="D44">
         <v>1.061669326799057</v>
@@ -1119,10 +1119,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.731548337596054</v>
+        <v>0.7315483375960538</v>
       </c>
       <c r="C45">
-        <v>0.766998933910067</v>
+        <v>0.7669989339100669</v>
       </c>
       <c r="D45">
         <v>0.8706894184111039</v>
@@ -1145,7 +1145,7 @@
         <v>0.9520431289061906</v>
       </c>
       <c r="E46">
-        <v>0.9005098573628429</v>
+        <v>0.9005098573628428</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1162,7 +1162,7 @@
         <v>1.035444470071669</v>
       </c>
       <c r="E47">
-        <v>0.974713877808512</v>
+        <v>0.9747138778085119</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1196,7 +1196,7 @@
         <v>0.6939076773588752</v>
       </c>
       <c r="E49">
-        <v>0.7059138068288306</v>
+        <v>0.7059138068288308</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1230,7 +1230,7 @@
         <v>0.7080049952980143</v>
       </c>
       <c r="E51">
-        <v>0.7374595343328133</v>
+        <v>0.7374595343328134</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1241,10 +1241,10 @@
         <v>0.6904676450233452</v>
       </c>
       <c r="C52">
-        <v>0.6598848375992532</v>
+        <v>0.6598848375992531</v>
       </c>
       <c r="D52">
-        <v>0.752394924467372</v>
+        <v>0.7523949244673719</v>
       </c>
       <c r="E52">
         <v>0.7782528338583303</v>
@@ -1255,7 +1255,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.6157653902279803</v>
+        <v>0.6157653902279804</v>
       </c>
       <c r="C53">
         <v>0.5527869104054539</v>
@@ -1278,7 +1278,7 @@
         <v>0.5290649617451557</v>
       </c>
       <c r="D54">
-        <v>0.6094111027759758</v>
+        <v>0.6094111027759757</v>
       </c>
       <c r="E54">
         <v>0.6298927293337195</v>
@@ -1306,10 +1306,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.8468326078377891</v>
+        <v>0.8468326078377892</v>
       </c>
       <c r="C56">
-        <v>0.7861488965905035</v>
+        <v>0.7861488965905032</v>
       </c>
       <c r="D56">
         <v>0.8623788815865594</v>
@@ -1329,7 +1329,7 @@
         <v>0.6567487059453136</v>
       </c>
       <c r="D57">
-        <v>0.7464100418679109</v>
+        <v>0.7464100418679108</v>
       </c>
       <c r="E57">
         <v>0.7754980566054482</v>
@@ -1343,10 +1343,10 @@
         <v>0.8395227642861212</v>
       </c>
       <c r="C58">
-        <v>0.7555380735712298</v>
+        <v>0.7555380735712299</v>
       </c>
       <c r="D58">
-        <v>0.8600088023288565</v>
+        <v>0.8600088023288562</v>
       </c>
       <c r="E58">
         <v>0.8764206183854233</v>
@@ -1360,10 +1360,10 @@
         <v>0.8395227642861212</v>
       </c>
       <c r="C59">
-        <v>0.7555380735712298</v>
+        <v>0.7555380735712299</v>
       </c>
       <c r="D59">
-        <v>0.8600088023288565</v>
+        <v>0.8600088023288562</v>
       </c>
       <c r="E59">
         <v>0.8764206183854234</v>
@@ -1374,10 +1374,10 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.6289501172119765</v>
+        <v>0.6289501172119766</v>
       </c>
       <c r="C60">
-        <v>0.5656173467026108</v>
+        <v>0.5656173467026109</v>
       </c>
       <c r="D60">
         <v>0.686533417592977</v>
@@ -1391,16 +1391,16 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.6289501172119765</v>
+        <v>0.6289501172119766</v>
       </c>
       <c r="C61">
-        <v>0.5656173467026108</v>
+        <v>0.5656173467026109</v>
       </c>
       <c r="D61">
         <v>0.686533417592977</v>
       </c>
       <c r="E61">
-        <v>0.7357790139694877</v>
+        <v>0.7357790139694879</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1417,7 +1417,7 @@
         <v>0.6010070544363131</v>
       </c>
       <c r="E62">
-        <v>0.6871077596231692</v>
+        <v>0.6871077596231694</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1428,13 +1428,13 @@
         <v>0.418075954664583</v>
       </c>
       <c r="C63">
-        <v>0.4154241243733471</v>
+        <v>0.4154241243733472</v>
       </c>
       <c r="D63">
         <v>0.6010070544363131</v>
       </c>
       <c r="E63">
-        <v>0.6871077596231692</v>
+        <v>0.6871077596231694</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1442,16 +1442,16 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.327141867711696</v>
+        <v>0.3271418677116959</v>
       </c>
       <c r="C64">
         <v>0.3598851096820988</v>
       </c>
       <c r="D64">
-        <v>0.5637597562298491</v>
+        <v>0.563759756229849</v>
       </c>
       <c r="E64">
-        <v>0.6556307102035395</v>
+        <v>0.6556307102035396</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1459,16 +1459,16 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.327141867711696</v>
+        <v>0.3271418677116959</v>
       </c>
       <c r="C65">
         <v>0.3598851096820989</v>
       </c>
       <c r="D65">
-        <v>0.5637597562298489</v>
+        <v>0.563759756229849</v>
       </c>
       <c r="E65">
-        <v>0.6556307102035395</v>
+        <v>0.6556307102035396</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1476,13 +1476,13 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1.002737573670243</v>
+        <v>1.002737573670242</v>
       </c>
       <c r="C66">
         <v>0.9500909109366595</v>
       </c>
       <c r="D66">
-        <v>0.9277599480043172</v>
+        <v>0.9277599480043174</v>
       </c>
       <c r="E66">
         <v>0.8715223670678702</v>
@@ -1502,7 +1502,7 @@
         <v>1.053747125373933</v>
       </c>
       <c r="E67">
-        <v>0.9673658730550837</v>
+        <v>0.9673658730550836</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1510,7 +1510,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1.002737573670243</v>
+        <v>1.002737573670242</v>
       </c>
       <c r="C68">
         <v>0.9500909109366595</v>
@@ -1519,7 +1519,7 @@
         <v>0.9277599480043174</v>
       </c>
       <c r="E68">
-        <v>0.8715223670678702</v>
+        <v>0.87152236706787</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1536,7 +1536,7 @@
         <v>1.053747125373933</v>
       </c>
       <c r="E69">
-        <v>0.9673658730550837</v>
+        <v>0.9673658730550835</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1553,7 +1553,7 @@
         <v>1.053747125373933</v>
       </c>
       <c r="E70">
-        <v>0.9673658730550837</v>
+        <v>0.9673658730550836</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1578,7 +1578,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1.206186806946442</v>
+        <v>1.206186806946441</v>
       </c>
       <c r="C72">
         <v>1.175026870887005</v>
@@ -1587,7 +1587,7 @@
         <v>1.089197213968133</v>
       </c>
       <c r="E72">
-        <v>0.9796786565898493</v>
+        <v>0.9796786565898491</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1595,7 +1595,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1.206186806946442</v>
+        <v>1.206186806946441</v>
       </c>
       <c r="C73">
         <v>1.175026870887005</v>
@@ -1604,7 +1604,7 @@
         <v>1.089197213968133</v>
       </c>
       <c r="E73">
-        <v>0.9796786565898493</v>
+        <v>0.9796786565898491</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1621,7 +1621,7 @@
         <v>1.089197213968133</v>
       </c>
       <c r="E74">
-        <v>0.9796786565898493</v>
+        <v>0.9796786565898491</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1629,7 +1629,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.9768559222323863</v>
+        <v>0.9768559222323858</v>
       </c>
       <c r="C75">
         <v>0.9383862841695509</v>
@@ -1638,7 +1638,7 @@
         <v>0.9326802287213457</v>
       </c>
       <c r="E75">
-        <v>0.8814004484713144</v>
+        <v>0.8814004484713142</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1689,7 +1689,7 @@
         <v>1.064263985783503</v>
       </c>
       <c r="E78">
-        <v>0.966454256217726</v>
+        <v>0.9664542562177261</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1706,7 +1706,7 @@
         <v>1.064263985783503</v>
       </c>
       <c r="E79">
-        <v>0.966454256217726</v>
+        <v>0.9664542562177261</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1723,7 +1723,7 @@
         <v>1.064263985783503</v>
       </c>
       <c r="E80">
-        <v>0.966454256217726</v>
+        <v>0.9664542562177261</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1850,7 +1850,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1.237720054763615</v>
+        <v>1.237720054763614</v>
       </c>
       <c r="C88">
         <v>1.276759895941703</v>
@@ -1890,10 +1890,10 @@
         <v>1.001247938185763</v>
       </c>
       <c r="D90">
-        <v>0.9429266831863508</v>
+        <v>0.9429266831863506</v>
       </c>
       <c r="E90">
-        <v>0.8671108534690386</v>
+        <v>0.8671108534690384</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1904,10 +1904,10 @@
         <v>1.044179077838779</v>
       </c>
       <c r="C91">
-        <v>0.9957085633418372</v>
+        <v>0.9957085633418371</v>
       </c>
       <c r="D91">
-        <v>0.9335891464030455</v>
+        <v>0.9335891464030454</v>
       </c>
       <c r="E91">
         <v>0.8567481258275479</v>
@@ -1921,13 +1921,13 @@
         <v>1.037373837165643</v>
       </c>
       <c r="C92">
-        <v>0.9720430701966501</v>
+        <v>0.9720430701966499</v>
       </c>
       <c r="D92">
-        <v>0.8936970251864117</v>
+        <v>0.8936970251864118</v>
       </c>
       <c r="E92">
-        <v>0.8124761516653251</v>
+        <v>0.8124761516653249</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1944,7 +1944,7 @@
         <v>1.015116461802452</v>
       </c>
       <c r="E93">
-        <v>0.9472265233356</v>
+        <v>0.9472265233355999</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1952,10 +1952,10 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>1.028319417857904</v>
+        <v>1.028319417857905</v>
       </c>
       <c r="C94">
-        <v>0.9390562021811915</v>
+        <v>0.9390562021811912</v>
       </c>
       <c r="D94">
         <v>0.7894827567075654</v>
@@ -1989,7 +1989,7 @@
         <v>1.039681952819628</v>
       </c>
       <c r="C96">
-        <v>0.9800696335191347</v>
+        <v>0.9800696335191342</v>
       </c>
       <c r="D96">
         <v>0.90722713144911</v>
@@ -2012,7 +2012,7 @@
         <v>1.015116461802452</v>
       </c>
       <c r="E97">
-        <v>0.9472265233356</v>
+        <v>0.9472265233355998</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2026,10 +2026,10 @@
         <v>1.006161810752367</v>
       </c>
       <c r="D98">
-        <v>1.002487568881381</v>
+        <v>1.00248756888138</v>
       </c>
       <c r="E98">
-        <v>0.9465728879200905</v>
+        <v>0.9465728879200904</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2037,7 +2037,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.9921295096487742</v>
+        <v>0.9921295096487743</v>
       </c>
       <c r="C99">
         <v>0.9856807222228683</v>
@@ -2046,7 +2046,7 @@
         <v>0.9685772577403011</v>
       </c>
       <c r="E99">
-        <v>0.9100705215663468</v>
+        <v>0.9100705215663467</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2060,10 +2060,10 @@
         <v>1.005707107792893</v>
       </c>
       <c r="D100">
-        <v>0.9691415932127477</v>
+        <v>0.9691415932127476</v>
       </c>
       <c r="E100">
-        <v>0.9048518922398769</v>
+        <v>0.9048518922398768</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2097,7 +2097,7 @@
         <v>0.9874589888739</v>
       </c>
       <c r="E102">
-        <v>0.9261255399411261</v>
+        <v>0.926125539941126</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2108,13 +2108,13 @@
         <v>0.9615243132452475</v>
       </c>
       <c r="C103">
-        <v>0.9793969779592679</v>
+        <v>0.9793969779592674</v>
       </c>
       <c r="D103">
-        <v>0.9881864029253142</v>
+        <v>0.9881864029253141</v>
       </c>
       <c r="E103">
-        <v>0.9393295887665253</v>
+        <v>0.9393295887665252</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2125,7 +2125,7 @@
         <v>0.9615243132452477</v>
       </c>
       <c r="C104">
-        <v>0.9793969779592679</v>
+        <v>0.9793969779592674</v>
       </c>
       <c r="D104">
         <v>0.988186402925314</v>
@@ -2196,7 +2196,7 @@
         <v>1.507656754147796</v>
       </c>
       <c r="D108">
-        <v>1.351708178482702</v>
+        <v>1.351708178482701</v>
       </c>
       <c r="E108">
         <v>1.138846265210339</v>
@@ -2213,7 +2213,7 @@
         <v>1.075407401644837</v>
       </c>
       <c r="D109">
-        <v>1.092987069003053</v>
+        <v>1.092987069003054</v>
       </c>
       <c r="E109">
         <v>0.9941676369051943</v>
@@ -2230,7 +2230,7 @@
         <v>1.075407401644837</v>
       </c>
       <c r="D110">
-        <v>1.092987069003053</v>
+        <v>1.092987069003054</v>
       </c>
       <c r="E110">
         <v>0.9941676369051943</v>
@@ -2261,7 +2261,7 @@
         <v>0.9521955598315257</v>
       </c>
       <c r="C112">
-        <v>0.9779789904967439</v>
+        <v>0.9779789904967436</v>
       </c>
       <c r="D112">
         <v>0.9927473494867478</v>
@@ -2284,7 +2284,7 @@
         <v>1.079944858890706</v>
       </c>
       <c r="E113">
-        <v>0.9846189843542829</v>
+        <v>0.984618984354283</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2295,7 +2295,7 @@
         <v>1.124928434754111</v>
       </c>
       <c r="C114">
-        <v>1.231667440108773</v>
+        <v>1.231667440108772</v>
       </c>
       <c r="D114">
         <v>1.206447195560633</v>
@@ -2312,7 +2312,7 @@
         <v>0.9504445676320522</v>
       </c>
       <c r="C115">
-        <v>0.9723669197699436</v>
+        <v>0.9723669197699434</v>
       </c>
       <c r="D115">
         <v>0.9837939841069876</v>
@@ -2326,7 +2326,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0.9521955598315256</v>
+        <v>0.9521955598315259</v>
       </c>
       <c r="C116">
         <v>0.9779789904967436</v>
@@ -2335,7 +2335,7 @@
         <v>0.9927473494867478</v>
       </c>
       <c r="E116">
-        <v>0.9443872567988243</v>
+        <v>0.9443872567988242</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2346,13 +2346,13 @@
         <v>0.9801976822686791</v>
       </c>
       <c r="C117">
-        <v>1.060450948941053</v>
+        <v>1.060450948941052</v>
       </c>
       <c r="D117">
         <v>1.081934937250906</v>
       </c>
       <c r="E117">
-        <v>0.9863234353133795</v>
+        <v>0.9863234353133797</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2386,7 +2386,7 @@
         <v>1.257610669654049</v>
       </c>
       <c r="E119">
-        <v>1.095332784375102</v>
+        <v>1.095332784375101</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2394,7 +2394,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>1.002612387641624</v>
+        <v>1.002612387641625</v>
       </c>
       <c r="C120">
         <v>1.003508626409336</v>
@@ -2417,7 +2417,7 @@
         <v>1.003508626409336</v>
       </c>
       <c r="D121">
-        <v>0.9983130651064518</v>
+        <v>0.9983130651064517</v>
       </c>
       <c r="E121">
         <v>0.9415205412978582</v>
@@ -2471,7 +2471,7 @@
         <v>1.101914140725162</v>
       </c>
       <c r="E124">
-        <v>0.9967095263854456</v>
+        <v>0.9967095263854454</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2488,7 +2488,7 @@
         <v>1.086241750444865</v>
       </c>
       <c r="E125">
-        <v>0.986162206173326</v>
+        <v>0.9861622061733257</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2564,16 +2564,16 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>1.077335824483647</v>
+        <v>1.077335824483648</v>
       </c>
       <c r="C130">
         <v>1.04031463932276</v>
       </c>
       <c r="D130">
-        <v>0.999349702320621</v>
+        <v>0.9993497023206208</v>
       </c>
       <c r="E130">
-        <v>0.9291530952099276</v>
+        <v>0.9291530952099274</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2584,10 +2584,10 @@
         <v>1.067896962679607</v>
       </c>
       <c r="C131">
-        <v>0.9990306599559378</v>
+        <v>0.9990306599559375</v>
       </c>
       <c r="D131">
-        <v>0.9216609641004455</v>
+        <v>0.9216609641004454</v>
       </c>
       <c r="E131">
         <v>0.8382371307856336</v>
@@ -2604,7 +2604,7 @@
         <v>1.002107958558476</v>
       </c>
       <c r="D132">
-        <v>0.927451865298066</v>
+        <v>0.9274518652980658</v>
       </c>
       <c r="E132">
         <v>0.8450139864706286</v>
@@ -2621,7 +2621,7 @@
         <v>1.016775834611437</v>
       </c>
       <c r="D133">
-        <v>0.9550540683899568</v>
+        <v>0.9550540683899567</v>
       </c>
       <c r="E133">
         <v>0.8773157199242266</v>
@@ -2635,13 +2635,13 @@
         <v>1.042201551566147</v>
       </c>
       <c r="C134">
-        <v>0.9853600108268905</v>
+        <v>0.9853600108268901</v>
       </c>
       <c r="D134">
-        <v>0.9175580845697955</v>
+        <v>0.9175580845697954</v>
       </c>
       <c r="E134">
-        <v>0.8393859896371432</v>
+        <v>0.8393859896371429</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2655,7 +2655,7 @@
         <v>1.040894221711276</v>
       </c>
       <c r="D135">
-        <v>0.9948063457170834</v>
+        <v>0.9948063457170835</v>
       </c>
       <c r="E135">
         <v>0.9239237586719884</v>
@@ -2709,7 +2709,7 @@
         <v>0.983180878871563</v>
       </c>
       <c r="E138">
-        <v>0.9188880198868737</v>
+        <v>0.9188880198868736</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2726,7 +2726,7 @@
         <v>0.9866363952219296</v>
       </c>
       <c r="E139">
-        <v>0.9251726318013123</v>
+        <v>0.925172631801312</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2743,7 +2743,7 @@
         <v>0.9786527430415544</v>
       </c>
       <c r="E140">
-        <v>0.8903885696759966</v>
+        <v>0.8903885696759963</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2811,7 +2811,7 @@
         <v>1.093296178695246</v>
       </c>
       <c r="E144">
-        <v>0.9859425774752139</v>
+        <v>0.9859425774752137</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2879,7 +2879,7 @@
         <v>1.048346953651195</v>
       </c>
       <c r="E148">
-        <v>0.95462846393692</v>
+        <v>0.9546284639369199</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2887,16 +2887,16 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.9912241819658558</v>
+        <v>0.991224181965856</v>
       </c>
       <c r="C149">
-        <v>0.9424637782113184</v>
+        <v>0.9424637782113183</v>
       </c>
       <c r="D149">
         <v>0.9188752097787327</v>
       </c>
       <c r="E149">
-        <v>0.8705819269750412</v>
+        <v>0.8705819269750411</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2904,16 +2904,16 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.991224181965856</v>
+        <v>0.9912241819658562</v>
       </c>
       <c r="C150">
         <v>0.9424637782113184</v>
       </c>
       <c r="D150">
-        <v>0.9188752097787329</v>
+        <v>0.9188752097787327</v>
       </c>
       <c r="E150">
-        <v>0.8705819269750413</v>
+        <v>0.8705819269750412</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2921,16 +2921,16 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.9900373497619013</v>
+        <v>0.9900373497619016</v>
       </c>
       <c r="C151">
-        <v>0.934008518906621</v>
+        <v>0.9340085189066207</v>
       </c>
       <c r="D151">
         <v>0.8988710084976916</v>
       </c>
       <c r="E151">
-        <v>0.8450694652630735</v>
+        <v>0.8450694652630732</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2938,7 +2938,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0.9912241819658558</v>
+        <v>0.991224181965856</v>
       </c>
       <c r="C152">
         <v>0.9424637782113184</v>
@@ -2947,7 +2947,7 @@
         <v>0.9188752097787327</v>
       </c>
       <c r="E152">
-        <v>0.8705819269750413</v>
+        <v>0.8705819269750412</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2992,7 +2992,7 @@
         <v>0.9663901806352745</v>
       </c>
       <c r="C155">
-        <v>0.9587477108846072</v>
+        <v>0.9587477108846069</v>
       </c>
       <c r="D155">
         <v>0.958502321423142</v>
@@ -3009,10 +3009,10 @@
         <v>0.9663901806352745</v>
       </c>
       <c r="C156">
-        <v>0.9587477108846071</v>
+        <v>0.9587477108846068</v>
       </c>
       <c r="D156">
-        <v>0.9585023214231421</v>
+        <v>0.958502321423142</v>
       </c>
       <c r="E156">
         <v>0.8915987312038</v>
@@ -3032,7 +3032,7 @@
         <v>1.053962994477256</v>
       </c>
       <c r="E157">
-        <v>0.9594163657885303</v>
+        <v>0.9594163657885301</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3040,7 +3040,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.9882298046739875</v>
+        <v>0.9882298046739877</v>
       </c>
       <c r="C158">
         <v>0.9939107390684386</v>
@@ -3057,10 +3057,10 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>0.950453071079688</v>
+        <v>0.9504530710796881</v>
       </c>
       <c r="C159">
-        <v>0.9000230006620605</v>
+        <v>0.9000230006620602</v>
       </c>
       <c r="D159">
         <v>0.8841513589024953</v>
@@ -3074,16 +3074,16 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.935993276695025</v>
+        <v>0.9359932766950252</v>
       </c>
       <c r="C160">
-        <v>0.9461506815607782</v>
+        <v>0.9461506815607779</v>
       </c>
       <c r="D160">
         <v>0.9610037443082279</v>
       </c>
       <c r="E160">
-        <v>0.8969646837901663</v>
+        <v>0.896964683790166</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3111,7 +3111,7 @@
         <v>1.110034836273516</v>
       </c>
       <c r="C162">
-        <v>1.177011762133905</v>
+        <v>1.177011762133904</v>
       </c>
       <c r="D162">
         <v>1.155668404860778</v>
@@ -3125,16 +3125,16 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.961046216520289</v>
+        <v>0.9610462165202892</v>
       </c>
       <c r="C163">
-        <v>0.9191402200699962</v>
+        <v>0.919140220069996</v>
       </c>
       <c r="D163">
         <v>0.9058233336056479</v>
       </c>
       <c r="E163">
-        <v>0.864006389939824</v>
+        <v>0.8640063899398239</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3162,13 +3162,13 @@
         <v>0.9356403169346145</v>
       </c>
       <c r="C165">
-        <v>0.9539826217366763</v>
+        <v>0.9539826217366761</v>
       </c>
       <c r="D165">
         <v>0.9731555926027466</v>
       </c>
       <c r="E165">
-        <v>0.9064250723507141</v>
+        <v>0.9064250723507142</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3176,7 +3176,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>0.9356403169346144</v>
+        <v>0.9356403169346146</v>
       </c>
       <c r="C166">
         <v>0.9539826217366761</v>
@@ -3185,7 +3185,7 @@
         <v>0.9731555926027466</v>
       </c>
       <c r="E166">
-        <v>0.9064250723507141</v>
+        <v>0.9064250723507142</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3247,7 +3247,7 @@
         <v>1.075634713097466</v>
       </c>
       <c r="C170">
-        <v>1.022557650601869</v>
+        <v>1.022557650601868</v>
       </c>
       <c r="D170">
         <v>0.9653479614623699</v>
@@ -3270,7 +3270,7 @@
         <v>1.021537310040534</v>
       </c>
       <c r="E171">
-        <v>0.9482790022751548</v>
+        <v>0.9482790022751546</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3287,7 +3287,7 @@
         <v>0.997230414993166</v>
       </c>
       <c r="E172">
-        <v>0.9295445432126705</v>
+        <v>0.9295445432126704</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3301,7 +3301,7 @@
         <v>1.009394788982668</v>
       </c>
       <c r="D173">
-        <v>0.9392650031987664</v>
+        <v>0.9392650031987663</v>
       </c>
       <c r="E173">
         <v>0.8600909168576396</v>
@@ -3329,7 +3329,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>1.249068395240128</v>
+        <v>1.249068395240129</v>
       </c>
       <c r="C175">
         <v>1.30053934668729</v>
@@ -3349,7 +3349,7 @@
         <v>1.130247906351571</v>
       </c>
       <c r="C176">
-        <v>1.159347909754056</v>
+        <v>1.159347909754055</v>
       </c>
       <c r="D176">
         <v>1.119292429128359</v>
@@ -3389,7 +3389,7 @@
         <v>0.9956347231963033</v>
       </c>
       <c r="E178">
-        <v>0.9274096360417743</v>
+        <v>0.9274096360417741</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3406,7 +3406,7 @@
         <v>1.096451763996288</v>
       </c>
       <c r="E179">
-        <v>0.9868293223540053</v>
+        <v>0.9868293223540052</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3502,7 +3502,7 @@
         <v>1.204580160216687</v>
       </c>
       <c r="C185">
-        <v>1.252772605099877</v>
+        <v>1.252772605099876</v>
       </c>
       <c r="D185">
         <v>1.186987538454971</v>
@@ -3536,13 +3536,13 @@
         <v>1.133823854930847</v>
       </c>
       <c r="C187">
-        <v>1.165502180579078</v>
+        <v>1.165502180579077</v>
       </c>
       <c r="D187">
         <v>1.127823521637872</v>
       </c>
       <c r="E187">
-        <v>1.002760451844819</v>
+        <v>1.002760451844818</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3567,7 +3567,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>1.253766835991998</v>
+        <v>1.253766835991997</v>
       </c>
       <c r="C189">
         <v>1.301809663145913</v>
@@ -3621,7 +3621,7 @@
         <v>1.133823854930847</v>
       </c>
       <c r="C192">
-        <v>1.165502180579078</v>
+        <v>1.165502180579077</v>
       </c>
       <c r="D192">
         <v>1.127823521637872</v>
@@ -3644,7 +3644,7 @@
         <v>0.9874589888739002</v>
       </c>
       <c r="E193">
-        <v>0.9261255399411261</v>
+        <v>0.926125539941126</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3655,13 +3655,13 @@
         <v>1.033095754544576</v>
       </c>
       <c r="C194">
-        <v>0.979832813928012</v>
+        <v>0.9798328139280118</v>
       </c>
       <c r="D194">
         <v>0.9205677175497631</v>
       </c>
       <c r="E194">
-        <v>0.8484386587511149</v>
+        <v>0.8484386587511148</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3689,13 +3689,13 @@
         <v>1.045305536889914</v>
       </c>
       <c r="C196">
-        <v>1.01942910742724</v>
+        <v>1.019429107427239</v>
       </c>
       <c r="D196">
         <v>0.9875646742937042</v>
       </c>
       <c r="E196">
-        <v>0.9249507368705594</v>
+        <v>0.9249507368705596</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3706,7 +3706,7 @@
         <v>1.018162771917992</v>
       </c>
       <c r="C197">
-        <v>0.9961946095128016</v>
+        <v>0.9961946095128014</v>
       </c>
       <c r="D197">
         <v>0.9747551618865467</v>
@@ -3763,7 +3763,7 @@
         <v>1.106771828607885</v>
       </c>
       <c r="E200">
-        <v>0.9953295293421939</v>
+        <v>0.9953295293421938</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3839,7 +3839,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>1.208618472705214</v>
+        <v>1.208618472705215</v>
       </c>
       <c r="C205">
         <v>1.287894312465781</v>
@@ -3876,13 +3876,13 @@
         <v>0.7564970718434562</v>
       </c>
       <c r="C207">
-        <v>0.6619686415036282</v>
+        <v>0.6619686415036281</v>
       </c>
       <c r="D207">
         <v>0.704138640698399</v>
       </c>
       <c r="E207">
-        <v>0.735995530363077</v>
+        <v>0.7359955303630771</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3899,7 +3899,7 @@
         <v>0.704138640698399</v>
       </c>
       <c r="E208">
-        <v>0.735995530363077</v>
+        <v>0.7359955303630771</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3907,16 +3907,16 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>0.7539226617937805</v>
+        <v>0.7539226617937806</v>
       </c>
       <c r="C209">
         <v>0.6608566385852727</v>
       </c>
       <c r="D209">
-        <v>0.6827189028159739</v>
+        <v>0.682718902815974</v>
       </c>
       <c r="E209">
-        <v>0.6987665256794595</v>
+        <v>0.6987665256794594</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3924,16 +3924,16 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0.756497071843456</v>
+        <v>0.7564970718434562</v>
       </c>
       <c r="C210">
-        <v>0.6619686415036283</v>
+        <v>0.6619686415036282</v>
       </c>
       <c r="D210">
         <v>0.7041386406983992</v>
       </c>
       <c r="E210">
-        <v>0.735995530363077</v>
+        <v>0.7359955303630771</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3958,13 +3958,13 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>0.8486264158949731</v>
+        <v>0.8486264158949733</v>
       </c>
       <c r="C212">
-        <v>0.8551315672067914</v>
+        <v>0.8551315672067913</v>
       </c>
       <c r="D212">
-        <v>0.9293135379979816</v>
+        <v>0.9293135379979818</v>
       </c>
       <c r="E212">
         <v>0.8863929513297156</v>
@@ -3984,7 +3984,7 @@
         <v>0.7041386406983989</v>
       </c>
       <c r="E213">
-        <v>0.735995530363077</v>
+        <v>0.7359955303630771</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4001,7 +4001,7 @@
         <v>0.787742927020608</v>
       </c>
       <c r="E214">
-        <v>0.7789809708875981</v>
+        <v>0.7789809708875982</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4009,7 +4009,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>0.7920117996914628</v>
+        <v>0.792011799691463</v>
       </c>
       <c r="C215">
         <v>0.7230556523335998</v>
@@ -4046,10 +4046,10 @@
         <v>0.7633477493461204</v>
       </c>
       <c r="C217">
-        <v>0.7207354592640624</v>
+        <v>0.7207354592640621</v>
       </c>
       <c r="D217">
-        <v>0.800931256679102</v>
+        <v>0.8009312566791021</v>
       </c>
       <c r="E217">
         <v>0.7919774948576035</v>
@@ -4066,7 +4066,7 @@
         <v>0.8550277460738293</v>
       </c>
       <c r="D218">
-        <v>0.9341806331388338</v>
+        <v>0.9341806331388337</v>
       </c>
       <c r="E218">
         <v>0.8833515718474902</v>
@@ -4077,13 +4077,13 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>0.8127343731912434</v>
+        <v>0.8127343731912435</v>
       </c>
       <c r="C219">
         <v>0.8169209084989679</v>
       </c>
       <c r="D219">
-        <v>0.9050590234172652</v>
+        <v>0.9050590234172653</v>
       </c>
       <c r="E219">
         <v>0.8719185965862752</v>
@@ -4094,10 +4094,10 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>0.8471949451767858</v>
+        <v>0.847194945176786</v>
       </c>
       <c r="C220">
-        <v>0.8741591579132373</v>
+        <v>0.874159157913237</v>
       </c>
       <c r="D220">
         <v>0.9522903042447235</v>
@@ -4114,7 +4114,7 @@
         <v>0.9355612194617265</v>
       </c>
       <c r="C221">
-        <v>0.9896153861009778</v>
+        <v>0.9896153861009777</v>
       </c>
       <c r="D221">
         <v>1.054675568332956</v>
@@ -4128,10 +4128,10 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>0.8127343731912433</v>
+        <v>0.8127343731912434</v>
       </c>
       <c r="C222">
-        <v>0.8169209084989679</v>
+        <v>0.8169209084989678</v>
       </c>
       <c r="D222">
         <v>0.9050590234172653</v>
@@ -4165,10 +4165,10 @@
         <v>0.950905670177563</v>
       </c>
       <c r="C224">
-        <v>0.9323587827995348</v>
+        <v>0.9323587827995345</v>
       </c>
       <c r="D224">
-        <v>0.9927496897293101</v>
+        <v>0.9927496897293102</v>
       </c>
       <c r="E224">
         <v>0.9461051281477487</v>
@@ -4199,7 +4199,7 @@
         <v>0.8599281408747602</v>
       </c>
       <c r="C226">
-        <v>0.7925910164508525</v>
+        <v>0.7925910164508524</v>
       </c>
       <c r="D226">
         <v>0.8661106190190615</v>
@@ -4219,10 +4219,10 @@
         <v>0.6646003351245148</v>
       </c>
       <c r="D227">
-        <v>0.6673461815677316</v>
+        <v>0.6673461815677317</v>
       </c>
       <c r="E227">
-        <v>0.6552611741076083</v>
+        <v>0.6552611741076082</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4236,7 +4236,7 @@
         <v>0.8901949805827228</v>
       </c>
       <c r="D228">
-        <v>0.9734695255607588</v>
+        <v>0.9734695255607589</v>
       </c>
       <c r="E228">
         <v>0.9482556114350416</v>
@@ -4250,13 +4250,13 @@
         <v>0.847194945176786</v>
       </c>
       <c r="C229">
-        <v>0.8741591579132373</v>
+        <v>0.8741591579132368</v>
       </c>
       <c r="D229">
         <v>0.9522903042447235</v>
       </c>
       <c r="E229">
-        <v>0.9030254974280074</v>
+        <v>0.9030254974280075</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4281,7 +4281,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>0.9842466627401204</v>
+        <v>0.9842466627401206</v>
       </c>
       <c r="C231">
         <v>1.022420399231318</v>
@@ -4290,7 +4290,7 @@
         <v>1.064340051552197</v>
       </c>
       <c r="E231">
-        <v>0.9670087575906375</v>
+        <v>0.9670087575906378</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4304,10 +4304,10 @@
         <v>0.9164088701553857</v>
       </c>
       <c r="D232">
-        <v>0.993142128985074</v>
+        <v>0.9931421289850739</v>
       </c>
       <c r="E232">
-        <v>0.9242804892663183</v>
+        <v>0.9242804892663182</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4321,7 +4321,7 @@
         <v>1.150365909474615</v>
       </c>
       <c r="D233">
-        <v>1.158898399672395</v>
+        <v>1.158898399672394</v>
       </c>
       <c r="E233">
         <v>1.026609711130271</v>
@@ -4332,7 +4332,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>1.052506645164969</v>
+        <v>1.05250664516497</v>
       </c>
       <c r="C234">
         <v>1.153973061320613</v>
@@ -4349,7 +4349,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>1.052506645164969</v>
+        <v>1.05250664516497</v>
       </c>
       <c r="C235">
         <v>1.153973061320613</v>
@@ -4372,7 +4372,7 @@
         <v>1.209708923102297</v>
       </c>
       <c r="D236">
-        <v>1.196519279569021</v>
+        <v>1.19651927956902</v>
       </c>
       <c r="E236">
         <v>1.046827164832654</v>
@@ -4386,13 +4386,13 @@
         <v>0.871972587774462</v>
       </c>
       <c r="C237">
-        <v>0.8007767218746914</v>
+        <v>0.8007767218746913</v>
       </c>
       <c r="D237">
         <v>0.8632152045189692</v>
       </c>
       <c r="E237">
-        <v>0.835373058264898</v>
+        <v>0.8353730582648979</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4400,13 +4400,13 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>0.793923047908303</v>
+        <v>0.7939230479083028</v>
       </c>
       <c r="C238">
         <v>0.6953473057091768</v>
       </c>
       <c r="D238">
-        <v>0.7429688860930311</v>
+        <v>0.7429688860930312</v>
       </c>
       <c r="E238">
         <v>0.7420856451565216</v>
@@ -4420,13 +4420,13 @@
         <v>1.003881774196717</v>
       </c>
       <c r="C239">
-        <v>0.9728572504200149</v>
+        <v>0.9728572504200145</v>
       </c>
       <c r="D239">
         <v>1.017853602857805</v>
       </c>
       <c r="E239">
-        <v>0.9467399827249491</v>
+        <v>0.946739982724949</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4434,13 +4434,13 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>0.9385731459378928</v>
+        <v>0.9385731459378929</v>
       </c>
       <c r="C240">
-        <v>0.9040577941941431</v>
+        <v>0.9040577941941429</v>
       </c>
       <c r="D240">
-        <v>0.9521582824895963</v>
+        <v>0.9521582824895964</v>
       </c>
       <c r="E240">
         <v>0.9080003465075168</v>
@@ -4460,7 +4460,7 @@
         <v>1.000232723153092</v>
       </c>
       <c r="E241">
-        <v>0.9314495291351751</v>
+        <v>0.931449529135175</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4468,7 +4468,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>0.9355612194617267</v>
+        <v>0.9355612194617265</v>
       </c>
       <c r="C242">
         <v>0.9896153861009778</v>
@@ -4485,7 +4485,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>0.969296375466089</v>
+        <v>0.9692963754660892</v>
       </c>
       <c r="C243">
         <v>1.038638819643662</v>
@@ -4494,7 +4494,7 @@
         <v>1.088252946122412</v>
       </c>
       <c r="E243">
-        <v>0.9825449793281543</v>
+        <v>0.982544979328154</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4596,7 +4596,7 @@
         <v>1.007636012986301</v>
       </c>
       <c r="E249">
-        <v>0.9610814430919092</v>
+        <v>0.9610814430919091</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4655,7 +4655,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>1.245424691766552</v>
+        <v>1.245424691766553</v>
       </c>
       <c r="C253">
         <v>1.338877434058518</v>
@@ -4664,7 +4664,7 @@
         <v>1.281685952962386</v>
       </c>
       <c r="E253">
-        <v>1.099261976045749</v>
+        <v>1.09926197604575</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4689,7 +4689,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>1.245424691766553</v>
+        <v>1.245424691766552</v>
       </c>
       <c r="C255">
         <v>1.338877434058518</v>
@@ -4698,7 +4698,7 @@
         <v>1.281685952962386</v>
       </c>
       <c r="E255">
-        <v>1.099261976045749</v>
+        <v>1.09926197604575</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4706,7 +4706,7 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>1.181953010134373</v>
+        <v>1.181953010134374</v>
       </c>
       <c r="C256">
         <v>1.276693320305261</v>
@@ -4743,7 +4743,7 @@
         <v>1.002063647822217</v>
       </c>
       <c r="C258">
-        <v>1.098315580774069</v>
+        <v>1.098315580774068</v>
       </c>
       <c r="D258">
         <v>1.132287720129688</v>
@@ -4760,7 +4760,7 @@
         <v>1.002063647822217</v>
       </c>
       <c r="C259">
-        <v>1.098315580774069</v>
+        <v>1.098315580774068</v>
       </c>
       <c r="D259">
         <v>1.132287720129688</v>
@@ -4783,7 +4783,7 @@
         <v>0.7883823181131315</v>
       </c>
       <c r="E260">
-        <v>0.7988772377957672</v>
+        <v>0.7988772377957674</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4794,13 +4794,13 @@
         <v>0.4385893498244661</v>
       </c>
       <c r="C261">
-        <v>0.5582952949810512</v>
+        <v>0.5582952949810509</v>
       </c>
       <c r="D261">
         <v>0.7884932266728192</v>
       </c>
       <c r="E261">
-        <v>0.8134552165773615</v>
+        <v>0.8134552165773614</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4811,13 +4811,13 @@
         <v>0.5453369459383828</v>
       </c>
       <c r="C262">
-        <v>0.6016507010603831</v>
+        <v>0.601650701060383</v>
       </c>
       <c r="D262">
         <v>0.7702864109937604</v>
       </c>
       <c r="E262">
-        <v>0.7856627740194538</v>
+        <v>0.7856627740194537</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4828,13 +4828,13 @@
         <v>0.6191951328874438</v>
       </c>
       <c r="C263">
-        <v>0.7279716015790285</v>
+        <v>0.7279716015790284</v>
       </c>
       <c r="D263">
         <v>0.8871241211689507</v>
       </c>
       <c r="E263">
-        <v>0.8849662294658733</v>
+        <v>0.8849662294658732</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4848,10 +4848,10 @@
         <v>0.6718383952054894</v>
       </c>
       <c r="D264">
-        <v>0.852577760277504</v>
+        <v>0.8525777602775042</v>
       </c>
       <c r="E264">
-        <v>0.852349219731293</v>
+        <v>0.8523492197312931</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4868,7 +4868,7 @@
         <v>0.852577760277504</v>
       </c>
       <c r="E265">
-        <v>0.852349219731293</v>
+        <v>0.8523492197312931</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4876,16 +4876,16 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>0.7934847055510525</v>
+        <v>0.7934847055510527</v>
       </c>
       <c r="C266">
-        <v>0.9001117927330138</v>
+        <v>0.9001117927330136</v>
       </c>
       <c r="D266">
         <v>1.012793413703744</v>
       </c>
       <c r="E266">
-        <v>0.9606503289509727</v>
+        <v>0.9606503289509726</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4899,10 +4899,10 @@
         <v>0.6718383952054895</v>
       </c>
       <c r="D267">
-        <v>0.852577760277504</v>
+        <v>0.8525777602775042</v>
       </c>
       <c r="E267">
-        <v>0.852349219731293</v>
+        <v>0.8523492197312932</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4913,10 +4913,10 @@
         <v>0.4385893498244661</v>
       </c>
       <c r="C268">
-        <v>0.5582952949810512</v>
+        <v>0.558295294981051</v>
       </c>
       <c r="D268">
-        <v>0.7884932266728193</v>
+        <v>0.7884932266728192</v>
       </c>
       <c r="E268">
         <v>0.8134552165773615</v>
@@ -4930,13 +4930,13 @@
         <v>0.4385893498244661</v>
       </c>
       <c r="C269">
-        <v>0.5582952949810512</v>
+        <v>0.5582952949810511</v>
       </c>
       <c r="D269">
         <v>0.7884932266728192</v>
       </c>
       <c r="E269">
-        <v>0.8134552165773615</v>
+        <v>0.8134552165773614</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -4947,7 +4947,7 @@
         <v>0.7005028394183692</v>
       </c>
       <c r="C270">
-        <v>0.8289040853552527</v>
+        <v>0.8289040853552526</v>
       </c>
       <c r="D270">
         <v>0.9214463207752723</v>
@@ -4961,10 +4961,10 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>0.673115347232538</v>
+        <v>0.6731153472325377</v>
       </c>
       <c r="C271">
-        <v>0.7092067269078638</v>
+        <v>0.7092067269078636</v>
       </c>
       <c r="D271">
         <v>0.796672171664888</v>
@@ -4978,10 +4978,10 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>0.6731153472325379</v>
+        <v>0.6731153472325377</v>
       </c>
       <c r="C272">
-        <v>0.7092067269078637</v>
+        <v>0.7092067269078635</v>
       </c>
       <c r="D272">
         <v>0.7966721716648879</v>
@@ -4995,13 +4995,13 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>0.6963073459255069</v>
+        <v>0.696307345925507</v>
       </c>
       <c r="C273">
-        <v>0.8511830217244448</v>
+        <v>0.8511830217244446</v>
       </c>
       <c r="D273">
-        <v>0.9569884579559838</v>
+        <v>0.9569884579559836</v>
       </c>
       <c r="E273">
         <v>0.9078915681516704</v>
@@ -5012,16 +5012,16 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>0.6963073459255069</v>
+        <v>0.696307345925507</v>
       </c>
       <c r="C274">
-        <v>0.8511830217244448</v>
+        <v>0.8511830217244446</v>
       </c>
       <c r="D274">
         <v>0.9569884579559838</v>
       </c>
       <c r="E274">
-        <v>0.9078915681516703</v>
+        <v>0.9078915681516704</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5032,13 +5032,13 @@
         <v>0.584744082256768</v>
       </c>
       <c r="C275">
-        <v>0.5298935701908338</v>
+        <v>0.5298935701908337</v>
       </c>
       <c r="D275">
-        <v>0.6409414312554651</v>
+        <v>0.6409414312554652</v>
       </c>
       <c r="E275">
-        <v>0.6821055713409896</v>
+        <v>0.6821055713409895</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5055,7 +5055,7 @@
         <v>0.6731596868459123</v>
       </c>
       <c r="E276">
-        <v>0.7139165917932546</v>
+        <v>0.7139165917932547</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5063,16 +5063,16 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>0.8354701849217596</v>
+        <v>0.8354701849217595</v>
       </c>
       <c r="C277">
-        <v>0.8029081370940595</v>
+        <v>0.8029081370940594</v>
       </c>
       <c r="D277">
-        <v>0.9078092815716885</v>
+        <v>0.9078092815716888</v>
       </c>
       <c r="E277">
-        <v>0.9010371938648943</v>
+        <v>0.9010371938648946</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5097,10 +5097,10 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>0.9286862605687191</v>
+        <v>0.9286862605687192</v>
       </c>
       <c r="C279">
-        <v>0.9137747053133926</v>
+        <v>0.9137747053133927</v>
       </c>
       <c r="D279">
         <v>1.016007119748332</v>
@@ -5123,7 +5123,7 @@
         <v>1.016007119748332</v>
       </c>
       <c r="E280">
-        <v>0.9692389763712471</v>
+        <v>0.9692389763712472</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5134,7 +5134,7 @@
         <v>0.6052744455168025</v>
       </c>
       <c r="C281">
-        <v>0.6038514863779982</v>
+        <v>0.6038514863779981</v>
       </c>
       <c r="D281">
         <v>0.7316250945440897</v>
@@ -5148,7 +5148,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>0.5480704602892955</v>
+        <v>0.5480704602892956</v>
       </c>
       <c r="C282">
         <v>0.5483530401696751</v>
@@ -5233,7 +5233,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>0.9350497328517163</v>
+        <v>0.9350497328517164</v>
       </c>
       <c r="C287">
         <v>1.039971582391466</v>
@@ -5253,13 +5253,13 @@
         <v>0.7993372407053606</v>
       </c>
       <c r="C288">
-        <v>0.952623893789041</v>
+        <v>0.9526238937890408</v>
       </c>
       <c r="D288">
-        <v>1.051359849989801</v>
+        <v>1.0513598499898</v>
       </c>
       <c r="E288">
-        <v>0.9856540047630116</v>
+        <v>0.9856540047630113</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5273,7 +5273,7 @@
         <v>1.167625863312644</v>
       </c>
       <c r="D289">
-        <v>1.175377036375286</v>
+        <v>1.175377036375285</v>
       </c>
       <c r="E289">
         <v>1.053058232344865</v>
@@ -5293,7 +5293,7 @@
         <v>1.128582432604452</v>
       </c>
       <c r="E290">
-        <v>1.027606598602802</v>
+        <v>1.027606598602801</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5310,7 +5310,7 @@
         <v>1.011721066127237</v>
       </c>
       <c r="E291">
-        <v>0.9599275763561295</v>
+        <v>0.9599275763561297</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5321,13 +5321,13 @@
         <v>0.8542266480999456</v>
       </c>
       <c r="C292">
-        <v>0.9980500426276393</v>
+        <v>0.9980500426276391</v>
       </c>
       <c r="D292">
         <v>1.067576718869944</v>
       </c>
       <c r="E292">
-        <v>0.98364001664768</v>
+        <v>0.9836400166476801</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5335,7 +5335,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>0.856590731265972</v>
+        <v>0.8565907312659721</v>
       </c>
       <c r="C293">
         <v>0.9995540674173216</v>
@@ -5344,7 +5344,7 @@
         <v>1.06928184978861</v>
       </c>
       <c r="E293">
-        <v>0.9871932944209961</v>
+        <v>0.9871932944209962</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5372,13 +5372,13 @@
         <v>0.7218881029050995</v>
       </c>
       <c r="C295">
-        <v>0.7389602799126437</v>
+        <v>0.7389602799126436</v>
       </c>
       <c r="D295">
-        <v>0.8076613905427107</v>
+        <v>0.8076613905427106</v>
       </c>
       <c r="E295">
-        <v>0.7961229164082314</v>
+        <v>0.7961229164082315</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5392,7 +5392,7 @@
         <v>0.7680614802183203</v>
       </c>
       <c r="D296">
-        <v>0.8411412528820733</v>
+        <v>0.8411412528820732</v>
       </c>
       <c r="E296">
         <v>0.8261030580129408</v>
@@ -5412,7 +5412,7 @@
         <v>1.002477654917007</v>
       </c>
       <c r="E297">
-        <v>0.934499037132012</v>
+        <v>0.9344990371320119</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5420,13 +5420,13 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>0.7070748855242958</v>
+        <v>0.7070748855242956</v>
       </c>
       <c r="C298">
         <v>0.7276752560752754</v>
       </c>
       <c r="D298">
-        <v>0.8040377511634225</v>
+        <v>0.8040377511634224</v>
       </c>
       <c r="E298">
         <v>0.7984861356413634</v>
@@ -5443,7 +5443,7 @@
         <v>0.8766325520914877</v>
       </c>
       <c r="D299">
-        <v>0.949294854089215</v>
+        <v>0.9492948540892149</v>
       </c>
       <c r="E299">
         <v>0.8976614362833372</v>
@@ -5454,16 +5454,16 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>0.7218881029050994</v>
+        <v>0.7218881029050995</v>
       </c>
       <c r="C300">
-        <v>0.7389602799126437</v>
+        <v>0.7389602799126436</v>
       </c>
       <c r="D300">
-        <v>0.8076613905427108</v>
+        <v>0.8076613905427105</v>
       </c>
       <c r="E300">
-        <v>0.7961229164082313</v>
+        <v>0.7961229164082315</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5474,10 +5474,10 @@
         <v>0.8504391373494522</v>
       </c>
       <c r="C301">
-        <v>0.9137559713669103</v>
+        <v>0.9137559713669104</v>
       </c>
       <c r="D301">
-        <v>0.9777926182717765</v>
+        <v>0.9777926182717763</v>
       </c>
       <c r="E301">
         <v>0.9183883871694452</v>
@@ -5522,7 +5522,7 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>0.7835011072175418</v>
+        <v>0.7835011072175417</v>
       </c>
       <c r="C304">
         <v>0.8342891886617702</v>
@@ -5531,7 +5531,7 @@
         <v>0.9040754461725022</v>
       </c>
       <c r="E304">
-        <v>0.8625313082766938</v>
+        <v>0.8625313082766939</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5548,7 +5548,7 @@
         <v>0.9040754461725024</v>
       </c>
       <c r="E305">
-        <v>0.8625313082766938</v>
+        <v>0.8625313082766939</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5559,13 +5559,13 @@
         <v>0.7826533407640753</v>
       </c>
       <c r="C306">
-        <v>0.798000299754095</v>
+        <v>0.7980002997540949</v>
       </c>
       <c r="D306">
-        <v>0.8517373041279709</v>
+        <v>0.8517373041279707</v>
       </c>
       <c r="E306">
-        <v>0.821512280261528</v>
+        <v>0.8215122802615279</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5579,10 +5579,10 @@
         <v>0.8342891886617702</v>
       </c>
       <c r="D307">
-        <v>0.9040754461725024</v>
+        <v>0.9040754461725022</v>
       </c>
       <c r="E307">
-        <v>0.8625313082766938</v>
+        <v>0.862531308276694</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5596,7 +5596,7 @@
         <v>0.9555253430916195</v>
       </c>
       <c r="D308">
-        <v>0.9847472918942628</v>
+        <v>0.9847472918942629</v>
       </c>
       <c r="E308">
         <v>0.9295576395635453</v>
@@ -5610,13 +5610,13 @@
         <v>0.7826533407640753</v>
       </c>
       <c r="C309">
-        <v>0.7980002997540951</v>
+        <v>0.7980002997540949</v>
       </c>
       <c r="D309">
         <v>0.851737304127971</v>
       </c>
       <c r="E309">
-        <v>0.821512280261528</v>
+        <v>0.8215122802615279</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5624,10 +5624,10 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>0.907075210210798</v>
+        <v>0.9070752102107978</v>
       </c>
       <c r="C310">
-        <v>1.018172513147948</v>
+        <v>1.018172513147947</v>
       </c>
       <c r="D310">
         <v>1.047023992699603</v>
@@ -5650,7 +5650,7 @@
         <v>0.7696381933354575</v>
       </c>
       <c r="E311">
-        <v>0.7831565523327901</v>
+        <v>0.7831565523327902</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5664,7 +5664,7 @@
         <v>0.5687210793251035</v>
       </c>
       <c r="D312">
-        <v>0.5818502362149495</v>
+        <v>0.5818502362149496</v>
       </c>
       <c r="E312">
         <v>0.5764419686500095</v>
@@ -5684,7 +5684,7 @@
         <v>0.7696381933354575</v>
       </c>
       <c r="E313">
-        <v>0.7831565523327902</v>
+        <v>0.7831565523327901</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5698,10 +5698,10 @@
         <v>0.6665600912343406</v>
       </c>
       <c r="D314">
-        <v>0.7696381933354575</v>
+        <v>0.7696381933354576</v>
       </c>
       <c r="E314">
-        <v>0.7831565523327902</v>
+        <v>0.7831565523327901</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5735,7 +5735,7 @@
         <v>1.075134648177672</v>
       </c>
       <c r="E316">
-        <v>0.971005312893031</v>
+        <v>0.9710053128930313</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5780,10 +5780,10 @@
         <v>0.9552387240522281</v>
       </c>
       <c r="C319">
-        <v>0.9712452184494366</v>
+        <v>0.9712452184494365</v>
       </c>
       <c r="D319">
-        <v>0.9701296797887972</v>
+        <v>0.9701296797887971</v>
       </c>
       <c r="E319">
         <v>0.8981780012488092</v>
@@ -5797,13 +5797,13 @@
         <v>0.9656238838720566</v>
       </c>
       <c r="C320">
-        <v>0.9798760872013259</v>
+        <v>0.9798760872013257</v>
       </c>
       <c r="D320">
-        <v>0.9884462388212754</v>
+        <v>0.9884462388212752</v>
       </c>
       <c r="E320">
-        <v>0.9170715818642514</v>
+        <v>0.9170715818642513</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5811,7 +5811,7 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>0.9978890073342952</v>
+        <v>0.9978890073342954</v>
       </c>
       <c r="C321">
         <v>1.019638869868782</v>
@@ -5820,7 +5820,7 @@
         <v>1.019956691631047</v>
       </c>
       <c r="E321">
-        <v>0.9387817834049724</v>
+        <v>0.9387817834049722</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5831,7 +5831,7 @@
         <v>1.316033483921695</v>
       </c>
       <c r="C322">
-        <v>1.373218205254471</v>
+        <v>1.37321820525447</v>
       </c>
       <c r="D322">
         <v>1.241313684954112</v>
@@ -5848,13 +5848,13 @@
         <v>0.9683386842548396</v>
       </c>
       <c r="C323">
-        <v>0.9802930200854137</v>
+        <v>0.9802930200854136</v>
       </c>
       <c r="D323">
-        <v>0.9814490868378476</v>
+        <v>0.9814490868378475</v>
       </c>
       <c r="E323">
-        <v>0.9099655171371454</v>
+        <v>0.909965517137145</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5868,7 +5868,7 @@
         <v>0.9802930200854137</v>
       </c>
       <c r="D324">
-        <v>0.9814490868378475</v>
+        <v>0.9814490868378474</v>
       </c>
       <c r="E324">
         <v>0.9099655171371452</v>
@@ -5885,10 +5885,10 @@
         <v>0.9802930200854136</v>
       </c>
       <c r="D325">
-        <v>0.9814490868378475</v>
+        <v>0.9814490868378474</v>
       </c>
       <c r="E325">
-        <v>0.9099655171371452</v>
+        <v>0.909965517137145</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5936,7 +5936,7 @@
         <v>1.325550180691951</v>
       </c>
       <c r="D328">
-        <v>1.208772312843022</v>
+        <v>1.208772312843021</v>
       </c>
       <c r="E328">
         <v>1.043111674154742</v>
@@ -5953,7 +5953,7 @@
         <v>1.291930856490751</v>
       </c>
       <c r="D329">
-        <v>1.187159366277552</v>
+        <v>1.187159366277551</v>
       </c>
       <c r="E329">
         <v>1.03108820217097</v>
@@ -5998,7 +5998,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>1.184558293997323</v>
+        <v>1.184558293997324</v>
       </c>
       <c r="C332">
         <v>1.306775685839699</v>
@@ -6038,7 +6038,7 @@
         <v>1.442582745841527</v>
       </c>
       <c r="D334">
-        <v>1.322371001963884</v>
+        <v>1.322371001963885</v>
       </c>
       <c r="E334">
         <v>1.12364824386657</v>
@@ -6083,7 +6083,7 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>0.5450366043070743</v>
+        <v>0.5450366043070745</v>
       </c>
       <c r="C337">
         <v>0.5016348445106128</v>
@@ -6103,13 +6103,13 @@
         <v>0.4889381720986656</v>
       </c>
       <c r="C338">
-        <v>0.458732740964625</v>
+        <v>0.4587327409646249</v>
       </c>
       <c r="D338">
         <v>0.5601406255633914</v>
       </c>
       <c r="E338">
-        <v>0.5873882123572043</v>
+        <v>0.5873882123572042</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6123,7 +6123,7 @@
         <v>0.5016348445106128</v>
       </c>
       <c r="D339">
-        <v>0.5894215544208967</v>
+        <v>0.5894215544208966</v>
       </c>
       <c r="E339">
         <v>0.610139731669698</v>
@@ -6160,7 +6160,7 @@
         <v>0.6159157997531657</v>
       </c>
       <c r="E341">
-        <v>0.6530267462553061</v>
+        <v>0.653026746255306</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6174,7 +6174,7 @@
         <v>0.5952922795490728</v>
       </c>
       <c r="D342">
-        <v>0.7141762295383475</v>
+        <v>0.7141762295383473</v>
       </c>
       <c r="E342">
         <v>0.7344045264299407</v>
@@ -6191,7 +6191,7 @@
         <v>0.5952922795490728</v>
       </c>
       <c r="D343">
-        <v>0.7141762295383474</v>
+        <v>0.7141762295383473</v>
       </c>
       <c r="E343">
         <v>0.7344045264299407</v>
@@ -6211,7 +6211,7 @@
         <v>0.637320856178913</v>
       </c>
       <c r="E344">
-        <v>0.6635280897520983</v>
+        <v>0.6635280897520982</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6222,13 +6222,13 @@
         <v>0.4128972692156876</v>
       </c>
       <c r="C345">
-        <v>0.4275511404688746</v>
+        <v>0.4275511404688745</v>
       </c>
       <c r="D345">
         <v>0.5560514508165001</v>
       </c>
       <c r="E345">
-        <v>0.5907345643997751</v>
+        <v>0.590734564399775</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6239,13 +6239,13 @@
         <v>0.4128972692156876</v>
       </c>
       <c r="C346">
-        <v>0.4275511404688746</v>
+        <v>0.4275511404688745</v>
       </c>
       <c r="D346">
         <v>0.5560514508165002</v>
       </c>
       <c r="E346">
-        <v>0.590734564399775</v>
+        <v>0.5907345643997749</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6256,13 +6256,13 @@
         <v>0.4128972692156876</v>
       </c>
       <c r="C347">
-        <v>0.4275511404688746</v>
+        <v>0.4275511404688745</v>
       </c>
       <c r="D347">
         <v>0.5560514508165001</v>
       </c>
       <c r="E347">
-        <v>0.5907345643997751</v>
+        <v>0.590734564399775</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6276,7 +6276,7 @@
         <v>0.6324581319251454</v>
       </c>
       <c r="D348">
-        <v>0.691489935887701</v>
+        <v>0.6914899358877011</v>
       </c>
       <c r="E348">
         <v>0.6985983670636297</v>
@@ -6287,13 +6287,13 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>0.6931072690960237</v>
+        <v>0.6931072690960236</v>
       </c>
       <c r="C349">
         <v>0.6324581319251454</v>
       </c>
       <c r="D349">
-        <v>0.691489935887701</v>
+        <v>0.6914899358877011</v>
       </c>
       <c r="E349">
         <v>0.6985983670636297</v>
@@ -6310,7 +6310,7 @@
         <v>0.6324581319251453</v>
       </c>
       <c r="D350">
-        <v>0.6914899358877009</v>
+        <v>0.6914899358877011</v>
       </c>
       <c r="E350">
         <v>0.6985983670636298</v>
@@ -6341,13 +6341,13 @@
         <v>0.3731712900113894</v>
       </c>
       <c r="C352">
-        <v>0.4035869609549891</v>
+        <v>0.4035869609549892</v>
       </c>
       <c r="D352">
         <v>0.5250012379277949</v>
       </c>
       <c r="E352">
-        <v>0.5446186514333315</v>
+        <v>0.5446186514333317</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6364,7 +6364,7 @@
         <v>0.8431505655451281</v>
       </c>
       <c r="E353">
-        <v>0.8409593047599656</v>
+        <v>0.8409593047599655</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6375,7 +6375,7 @@
         <v>0.8132068965361063</v>
       </c>
       <c r="C354">
-        <v>0.7054453875029254</v>
+        <v>0.7054453875029253</v>
       </c>
       <c r="D354">
         <v>0.7483508156037344</v>
@@ -6395,10 +6395,10 @@
         <v>0.8167483350860585</v>
       </c>
       <c r="D355">
-        <v>0.8711866953081603</v>
+        <v>0.8711866953081604</v>
       </c>
       <c r="E355">
-        <v>0.8530155593826685</v>
+        <v>0.8530155593826684</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6409,7 +6409,7 @@
         <v>0.7181774633447412</v>
       </c>
       <c r="C356">
-        <v>0.6484648003186771</v>
+        <v>0.6484648003186773</v>
       </c>
       <c r="D356">
         <v>0.6900659788072143</v>
@@ -6429,7 +6429,7 @@
         <v>0.6484648003186773</v>
       </c>
       <c r="D357">
-        <v>0.6900659788072144</v>
+        <v>0.6900659788072143</v>
       </c>
       <c r="E357">
         <v>0.6990267922231006</v>
@@ -6443,10 +6443,10 @@
         <v>0.7181774633447412</v>
       </c>
       <c r="C358">
-        <v>0.6484648003186773</v>
+        <v>0.6484648003186774</v>
       </c>
       <c r="D358">
-        <v>0.6900659788072144</v>
+        <v>0.6900659788072143</v>
       </c>
       <c r="E358">
         <v>0.6990267922231006</v>
@@ -6463,7 +6463,7 @@
         <v>0.4436733499162675</v>
       </c>
       <c r="D359">
-        <v>0.5524358537407067</v>
+        <v>0.5524358537407066</v>
       </c>
       <c r="E359">
         <v>0.5697964326609068</v>
@@ -6491,10 +6491,10 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>0.8252112188173464</v>
+        <v>0.8252112188173465</v>
       </c>
       <c r="C361">
-        <v>0.9962721551881607</v>
+        <v>0.9962721551881606</v>
       </c>
       <c r="D361">
         <v>1.103857553406096</v>
@@ -6508,7 +6508,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>0.8948525785833273</v>
+        <v>0.8948525785833272</v>
       </c>
       <c r="C362">
         <v>1.034189488060745</v>
@@ -6528,7 +6528,7 @@
         <v>0.7694511894862766</v>
       </c>
       <c r="C363">
-        <v>0.9077784679672906</v>
+        <v>0.9077784679672904</v>
       </c>
       <c r="D363">
         <v>1.044248464167812</v>
@@ -6542,7 +6542,7 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>0.9436147975517911</v>
+        <v>0.9436147975517909</v>
       </c>
       <c r="C364">
         <v>1.03638947678495</v>
@@ -6559,7 +6559,7 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>0.943614797551791</v>
+        <v>0.9436147975517909</v>
       </c>
       <c r="C365">
         <v>1.03638947678495</v>
@@ -6576,16 +6576,16 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>0.831656242784917</v>
+        <v>0.8316562427849168</v>
       </c>
       <c r="C366">
         <v>0.9050964435526121</v>
       </c>
       <c r="D366">
-        <v>1.008369242405507</v>
+        <v>1.008369242405506</v>
       </c>
       <c r="E366">
-        <v>0.9614527798083927</v>
+        <v>0.9614527798083926</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6602,7 +6602,7 @@
         <v>1.008369242405507</v>
       </c>
       <c r="E367">
-        <v>0.9614527798083926</v>
+        <v>0.9614527798083925</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6613,7 +6613,7 @@
         <v>0.8789780018206954</v>
       </c>
       <c r="C368">
-        <v>0.9248162962123979</v>
+        <v>0.9248162962123977</v>
       </c>
       <c r="D368">
         <v>1.018291276787978</v>
@@ -6633,10 +6633,10 @@
         <v>0.9050964435526121</v>
       </c>
       <c r="D369">
-        <v>1.008369242405507</v>
+        <v>1.008369242405506</v>
       </c>
       <c r="E369">
-        <v>0.9614527798083926</v>
+        <v>0.9614527798083925</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6650,10 +6650,10 @@
         <v>0.8063791184988154</v>
       </c>
       <c r="D370">
-        <v>0.9399609099954386</v>
+        <v>0.9399609099954385</v>
       </c>
       <c r="E370">
-        <v>0.922447087415717</v>
+        <v>0.9224470874157169</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6670,7 +6670,7 @@
         <v>0.9399609099954384</v>
       </c>
       <c r="E371">
-        <v>0.922447087415717</v>
+        <v>0.9224470874157169</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6681,13 +6681,13 @@
         <v>0.755638830880999</v>
       </c>
       <c r="C372">
-        <v>0.8063791184988154</v>
+        <v>0.8063791184988153</v>
       </c>
       <c r="D372">
         <v>0.9399609099954386</v>
       </c>
       <c r="E372">
-        <v>0.922447087415717</v>
+        <v>0.9224470874157168</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6695,10 +6695,10 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>0.7814821600493109</v>
+        <v>0.781482160049311</v>
       </c>
       <c r="C373">
-        <v>0.8197186335679533</v>
+        <v>0.8197186335679532</v>
       </c>
       <c r="D373">
         <v>0.9303048660523153</v>
@@ -6712,16 +6712,16 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>0.6618420510891518</v>
+        <v>0.661842051089152</v>
       </c>
       <c r="C374">
         <v>0.6615679356975417</v>
       </c>
       <c r="D374">
-        <v>0.7993760517432322</v>
+        <v>0.7993760517432323</v>
       </c>
       <c r="E374">
-        <v>0.8187813803578496</v>
+        <v>0.8187813803578494</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6729,16 +6729,16 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>0.8208657370865799</v>
+        <v>0.8208657370865801</v>
       </c>
       <c r="C375">
-        <v>0.8586725147853256</v>
+        <v>0.8586725147853255</v>
       </c>
       <c r="D375">
-        <v>0.964543587790769</v>
+        <v>0.9645435877907689</v>
       </c>
       <c r="E375">
-        <v>0.9073628756703292</v>
+        <v>0.9073628756703291</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6752,7 +6752,7 @@
         <v>0.7066802723644025</v>
       </c>
       <c r="D376">
-        <v>0.8467666886441583</v>
+        <v>0.8467666886441585</v>
       </c>
       <c r="E376">
         <v>0.8439680260372797</v>
@@ -6769,7 +6769,7 @@
         <v>0.7066802723644025</v>
       </c>
       <c r="D377">
-        <v>0.8467666886441584</v>
+        <v>0.8467666886441585</v>
       </c>
       <c r="E377">
         <v>0.8439680260372796</v>
@@ -6789,7 +6789,7 @@
         <v>1.021741746743416</v>
       </c>
       <c r="E378">
-        <v>0.9535684156452198</v>
+        <v>0.9535684156452195</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6814,7 +6814,7 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>0.9499863758230064</v>
+        <v>0.9499863758230065</v>
       </c>
       <c r="C380">
         <v>0.996254119499173</v>
@@ -6823,7 +6823,7 @@
         <v>1.057487097814615</v>
       </c>
       <c r="E380">
-        <v>0.9657788099869635</v>
+        <v>0.9657788099869633</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6848,16 +6848,16 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>0.8822798271456511</v>
+        <v>0.8822798271456513</v>
       </c>
       <c r="C382">
-        <v>0.8975400492946753</v>
+        <v>0.8975400492946752</v>
       </c>
       <c r="D382">
         <v>0.9886631848768745</v>
       </c>
       <c r="E382">
-        <v>0.9289988730069638</v>
+        <v>0.9289988730069637</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6874,7 +6874,7 @@
         <v>1.082202877460882</v>
       </c>
       <c r="E383">
-        <v>0.9837555772397882</v>
+        <v>0.9837555772397885</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6882,7 +6882,7 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>0.7699046626663348</v>
+        <v>0.7699046626663351</v>
       </c>
       <c r="C384">
         <v>0.8598859428369162</v>
@@ -6891,7 +6891,7 @@
         <v>0.992300193557026</v>
       </c>
       <c r="E384">
-        <v>0.9333136557994829</v>
+        <v>0.9333136557994828</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -6919,13 +6919,13 @@
         <v>0.6237967879300625</v>
       </c>
       <c r="C386">
-        <v>0.7356905810907212</v>
+        <v>0.7356905810907211</v>
       </c>
       <c r="D386">
-        <v>0.9153834395472591</v>
+        <v>0.915383439547259</v>
       </c>
       <c r="E386">
-        <v>0.8932543341754917</v>
+        <v>0.8932543341754916</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6933,16 +6933,16 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>0.6237967879300625</v>
+        <v>0.6237967879300628</v>
       </c>
       <c r="C387">
-        <v>0.7356905810907212</v>
+        <v>0.7356905810907211</v>
       </c>
       <c r="D387">
         <v>0.9153834395472591</v>
       </c>
       <c r="E387">
-        <v>0.8932543341754917</v>
+        <v>0.8932543341754916</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -6950,16 +6950,16 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>0.7142942264675588</v>
+        <v>0.7142942264675585</v>
       </c>
       <c r="C388">
-        <v>0.5646877140166343</v>
+        <v>0.5646877140166345</v>
       </c>
       <c r="D388">
         <v>0.5862038344214358</v>
       </c>
       <c r="E388">
-        <v>0.6433609799635733</v>
+        <v>0.6433609799635732</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -6967,7 +6967,7 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>0.6672953825940514</v>
+        <v>0.6672953825940512</v>
       </c>
       <c r="C389">
         <v>0.5390838675609458</v>
@@ -6976,7 +6976,7 @@
         <v>0.5821749271482871</v>
       </c>
       <c r="E389">
-        <v>0.6462010989427639</v>
+        <v>0.6462010989427638</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -6984,7 +6984,7 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>0.6672953825940514</v>
+        <v>0.6672953825940512</v>
       </c>
       <c r="C390">
         <v>0.5390838675609457</v>
@@ -7001,13 +7001,13 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>0.7142942264675588</v>
+        <v>0.7142942264675586</v>
       </c>
       <c r="C391">
-        <v>0.5646877140166343</v>
+        <v>0.5646877140166344</v>
       </c>
       <c r="D391">
-        <v>0.5862038344214358</v>
+        <v>0.5862038344214359</v>
       </c>
       <c r="E391">
         <v>0.6433609799635732</v>
@@ -7018,7 +7018,7 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>0.6672953825940514</v>
+        <v>0.6672953825940513</v>
       </c>
       <c r="C392">
         <v>0.5390838675609458</v>
@@ -7044,7 +7044,7 @@
         <v>0.4569240756649825</v>
       </c>
       <c r="E393">
-        <v>0.4920896113867516</v>
+        <v>0.4920896113867515</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -7052,7 +7052,7 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>0.5906908618107717</v>
+        <v>0.5906908618107715</v>
       </c>
       <c r="C394">
         <v>0.4618799449539466</v>
@@ -7069,7 +7069,7 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>0.6173576854122933</v>
+        <v>0.617357685412293</v>
       </c>
       <c r="C395">
         <v>0.4829858529353707</v>
@@ -7086,7 +7086,7 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>0.6173576854122931</v>
+        <v>0.617357685412293</v>
       </c>
       <c r="C396">
         <v>0.4829858529353707</v>
@@ -7103,10 +7103,10 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>0.707516981280805</v>
+        <v>0.7075169812808049</v>
       </c>
       <c r="C397">
-        <v>0.5303943935505596</v>
+        <v>0.5303943935505597</v>
       </c>
       <c r="D397">
         <v>0.5182763221029638</v>
@@ -7120,13 +7120,13 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>0.707516981280805</v>
+        <v>0.7075169812808049</v>
       </c>
       <c r="C398">
-        <v>0.5303943935505596</v>
+        <v>0.5303943935505597</v>
       </c>
       <c r="D398">
-        <v>0.5182763221029638</v>
+        <v>0.5182763221029637</v>
       </c>
       <c r="E398">
         <v>0.5530113150888318</v>
@@ -7140,7 +7140,7 @@
         <v>0.556429675037288</v>
       </c>
       <c r="C399">
-        <v>0.43309421458633</v>
+        <v>0.4330942145863299</v>
       </c>
       <c r="D399">
         <v>0.5705394421987238</v>
@@ -7157,13 +7157,13 @@
         <v>0.5505783681589969</v>
       </c>
       <c r="C400">
-        <v>0.4331749642851511</v>
+        <v>0.433174964285151</v>
       </c>
       <c r="D400">
         <v>0.5848407974581946</v>
       </c>
       <c r="E400">
-        <v>0.6911071079472072</v>
+        <v>0.6911071079472071</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7174,7 +7174,7 @@
         <v>0.5665866968193041</v>
       </c>
       <c r="C401">
-        <v>0.4479041753989578</v>
+        <v>0.4479041753989577</v>
       </c>
       <c r="D401">
         <v>0.5930774290794101</v>
@@ -7191,7 +7191,7 @@
         <v>0.5521154493938477</v>
       </c>
       <c r="C402">
-        <v>0.4120455151964134</v>
+        <v>0.4120455151964133</v>
       </c>
       <c r="D402">
         <v>0.539612142393167</v>
@@ -7214,7 +7214,7 @@
         <v>0.5848407974581946</v>
       </c>
       <c r="E403">
-        <v>0.6911071079472072</v>
+        <v>0.6911071079472071</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7222,7 +7222,7 @@
         <v>403</v>
       </c>
       <c r="B404">
-        <v>0.5112366897330075</v>
+        <v>0.5112366897330076</v>
       </c>
       <c r="C404">
         <v>0.3877968513718114</v>
@@ -7282,7 +7282,7 @@
         <v>0.47932248926711</v>
       </c>
       <c r="E407">
-        <v>0.59013443945421</v>
+        <v>0.5901344394542101</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7330,7 +7330,7 @@
         <v>0.7684430435737094</v>
       </c>
       <c r="D410">
-        <v>0.8968325800290462</v>
+        <v>0.896832580029046</v>
       </c>
       <c r="E410">
         <v>0.9143067108752625</v>
@@ -7344,10 +7344,10 @@
         <v>0.7292882780801543</v>
       </c>
       <c r="C411">
-        <v>0.6885509081592307</v>
+        <v>0.6885509081592306</v>
       </c>
       <c r="D411">
-        <v>0.8382151596407061</v>
+        <v>0.8382151596407059</v>
       </c>
       <c r="E411">
         <v>0.8736208366812866</v>
@@ -7361,10 +7361,10 @@
         <v>0.7292882780801543</v>
       </c>
       <c r="C412">
-        <v>0.6885509081592307</v>
+        <v>0.6885509081592305</v>
       </c>
       <c r="D412">
-        <v>0.8382151596407061</v>
+        <v>0.8382151596407059</v>
       </c>
       <c r="E412">
         <v>0.8736208366812866</v>
@@ -7375,16 +7375,16 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>0.6952316746126725</v>
+        <v>0.6952316746126727</v>
       </c>
       <c r="C413">
-        <v>0.6729602415350476</v>
+        <v>0.6729602415350474</v>
       </c>
       <c r="D413">
         <v>0.8200275003237197</v>
       </c>
       <c r="E413">
-        <v>0.8510394834391585</v>
+        <v>0.8510394834391584</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7412,13 +7412,13 @@
         <v>0.7409602610640099</v>
       </c>
       <c r="C415">
-        <v>0.6979994269125699</v>
+        <v>0.6979994269125698</v>
       </c>
       <c r="D415">
         <v>0.8513259024847976</v>
       </c>
       <c r="E415">
-        <v>0.8828506158563657</v>
+        <v>0.8828506158563655</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7429,13 +7429,13 @@
         <v>0.7409602610640099</v>
       </c>
       <c r="C416">
-        <v>0.6979994269125699</v>
+        <v>0.6979994269125698</v>
       </c>
       <c r="D416">
         <v>0.8513259024847976</v>
       </c>
       <c r="E416">
-        <v>0.8828506158563656</v>
+        <v>0.8828506158563655</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7483,10 +7483,10 @@
         <v>0.7075819907491063</v>
       </c>
       <c r="D419">
-        <v>0.7792434360603022</v>
+        <v>0.7792434360603019</v>
       </c>
       <c r="E419">
-        <v>0.7960606246180104</v>
+        <v>0.7960606246180103</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7500,10 +7500,10 @@
         <v>0.7075819907491064</v>
       </c>
       <c r="D420">
-        <v>0.7792434360603021</v>
+        <v>0.7792434360603019</v>
       </c>
       <c r="E420">
-        <v>0.7960606246180104</v>
+        <v>0.7960606246180103</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7514,10 +7514,10 @@
         <v>0.6439970861749752</v>
       </c>
       <c r="C421">
-        <v>0.5886683914254071</v>
+        <v>0.5886683914254072</v>
       </c>
       <c r="D421">
-        <v>0.6554316115677744</v>
+        <v>0.6554316115677743</v>
       </c>
       <c r="E421">
         <v>0.6822859143160143</v>
@@ -7531,10 +7531,10 @@
         <v>0.6439970861749752</v>
       </c>
       <c r="C422">
-        <v>0.5886683914254071</v>
+        <v>0.5886683914254072</v>
       </c>
       <c r="D422">
-        <v>0.6554316115677745</v>
+        <v>0.6554316115677744</v>
       </c>
       <c r="E422">
         <v>0.6822859143160144</v>
@@ -7551,10 +7551,10 @@
         <v>0.7075819907491064</v>
       </c>
       <c r="D423">
-        <v>0.7792434360603021</v>
+        <v>0.7792434360603019</v>
       </c>
       <c r="E423">
-        <v>0.7960606246180104</v>
+        <v>0.7960606246180103</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7562,13 +7562,13 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>0.717170237846907</v>
+        <v>0.7171702378469068</v>
       </c>
       <c r="C424">
         <v>0.7075819907491063</v>
       </c>
       <c r="D424">
-        <v>0.779243436060302</v>
+        <v>0.7792434360603019</v>
       </c>
       <c r="E424">
         <v>0.7960606246180105</v>
@@ -7588,7 +7588,7 @@
         <v>0.6554316115677744</v>
       </c>
       <c r="E425">
-        <v>0.6822859143160143</v>
+        <v>0.6822859143160144</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7596,13 +7596,13 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>0.717170237846907</v>
+        <v>0.7171702378469068</v>
       </c>
       <c r="C426">
         <v>0.7075819907491064</v>
       </c>
       <c r="D426">
-        <v>0.7792434360603021</v>
+        <v>0.7792434360603019</v>
       </c>
       <c r="E426">
         <v>0.7960606246180105</v>
@@ -7636,7 +7636,7 @@
         <v>0.7414936345953882</v>
       </c>
       <c r="D428">
-        <v>0.8094128875447488</v>
+        <v>0.8094128875447487</v>
       </c>
       <c r="E428">
         <v>0.8085636421465874</v>
@@ -7647,13 +7647,13 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>0.717170237846907</v>
+        <v>0.7171702378469068</v>
       </c>
       <c r="C429">
         <v>0.7075819907491063</v>
       </c>
       <c r="D429">
-        <v>0.779243436060302</v>
+        <v>0.7792434360603019</v>
       </c>
       <c r="E429">
         <v>0.7960606246180104</v>
@@ -7670,7 +7670,7 @@
         <v>0.7075819907491063</v>
       </c>
       <c r="D430">
-        <v>0.7792434360603021</v>
+        <v>0.7792434360603019</v>
       </c>
       <c r="E430">
         <v>0.7960606246180104</v>
@@ -7684,10 +7684,10 @@
         <v>0.6439970861749752</v>
       </c>
       <c r="C431">
-        <v>0.5886683914254071</v>
+        <v>0.5886683914254072</v>
       </c>
       <c r="D431">
-        <v>0.6554316115677744</v>
+        <v>0.6554316115677743</v>
       </c>
       <c r="E431">
         <v>0.6822859143160144</v>
@@ -7698,13 +7698,13 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>0.717170237846907</v>
+        <v>0.7171702378469068</v>
       </c>
       <c r="C432">
         <v>0.7075819907491064</v>
       </c>
       <c r="D432">
-        <v>0.779243436060302</v>
+        <v>0.7792434360603019</v>
       </c>
       <c r="E432">
         <v>0.7960606246180104</v>
@@ -7721,7 +7721,7 @@
         <v>0.7075819907491064</v>
       </c>
       <c r="D433">
-        <v>0.7792434360603021</v>
+        <v>0.7792434360603019</v>
       </c>
       <c r="E433">
         <v>0.7960606246180104</v>
@@ -7735,13 +7735,13 @@
         <v>0.5925487994097498</v>
       </c>
       <c r="C434">
-        <v>0.5593977405392893</v>
+        <v>0.5593977405392894</v>
       </c>
       <c r="D434">
-        <v>0.6406669907346928</v>
+        <v>0.6406669907346927</v>
       </c>
       <c r="E434">
-        <v>0.6829203747891952</v>
+        <v>0.6829203747891951</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -7749,16 +7749,16 @@
         <v>434</v>
       </c>
       <c r="B435">
-        <v>0.7171702378469069</v>
+        <v>0.7171702378469068</v>
       </c>
       <c r="C435">
         <v>0.7075819907491063</v>
       </c>
       <c r="D435">
-        <v>0.779243436060302</v>
+        <v>0.7792434360603017</v>
       </c>
       <c r="E435">
-        <v>0.7960606246180104</v>
+        <v>0.7960606246180103</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -7772,7 +7772,7 @@
         <v>0.6238446485076337</v>
       </c>
       <c r="D436">
-        <v>0.6826325599914582</v>
+        <v>0.6826325599914581</v>
       </c>
       <c r="E436">
         <v>0.7067655295824078</v>
@@ -7783,13 +7783,13 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>0.4846307744038076</v>
+        <v>0.4846307744038075</v>
       </c>
       <c r="C437">
         <v>0.4703467284046806</v>
       </c>
       <c r="D437">
-        <v>0.5466606089426217</v>
+        <v>0.5466606089426218</v>
       </c>
       <c r="E437">
         <v>0.5841262366955295</v>
@@ -7800,16 +7800,16 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>0.4846307744038076</v>
+        <v>0.4846307744038075</v>
       </c>
       <c r="C438">
-        <v>0.4703467284046805</v>
+        <v>0.4703467284046806</v>
       </c>
       <c r="D438">
-        <v>0.5466606089426216</v>
+        <v>0.5466606089426217</v>
       </c>
       <c r="E438">
-        <v>0.5841262366955295</v>
+        <v>0.5841262366955297</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -7817,13 +7817,13 @@
         <v>438</v>
       </c>
       <c r="B439">
-        <v>0.4846307744038076</v>
+        <v>0.4846307744038075</v>
       </c>
       <c r="C439">
         <v>0.4703467284046806</v>
       </c>
       <c r="D439">
-        <v>0.5466606089426216</v>
+        <v>0.5466606089426217</v>
       </c>
       <c r="E439">
         <v>0.5841262366955295</v>
@@ -7834,13 +7834,13 @@
         <v>439</v>
       </c>
       <c r="B440">
-        <v>0.4846307744038076</v>
+        <v>0.4846307744038075</v>
       </c>
       <c r="C440">
         <v>0.4703467284046806</v>
       </c>
       <c r="D440">
-        <v>0.5466606089426217</v>
+        <v>0.5466606089426218</v>
       </c>
       <c r="E440">
         <v>0.5841262366955295</v>
@@ -7851,7 +7851,7 @@
         <v>440</v>
       </c>
       <c r="B441">
-        <v>0.4846307744038076</v>
+        <v>0.4846307744038075</v>
       </c>
       <c r="C441">
         <v>0.4703467284046806</v>
@@ -7871,13 +7871,13 @@
         <v>0.4835922248794947</v>
       </c>
       <c r="C442">
-        <v>0.4566347490248737</v>
+        <v>0.4566347490248738</v>
       </c>
       <c r="D442">
         <v>0.5133956800658606</v>
       </c>
       <c r="E442">
-        <v>0.543860295318039</v>
+        <v>0.5438602953180391</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -7888,7 +7888,7 @@
         <v>0.4846307744038075</v>
       </c>
       <c r="C443">
-        <v>0.4703467284046805</v>
+        <v>0.4703467284046806</v>
       </c>
       <c r="D443">
         <v>0.5466606089426217</v>
@@ -7902,7 +7902,7 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <v>0.4846307744038076</v>
+        <v>0.4846307744038075</v>
       </c>
       <c r="C444">
         <v>0.4703467284046806</v>
@@ -7919,10 +7919,10 @@
         <v>444</v>
       </c>
       <c r="B445">
-        <v>0.4846307744038076</v>
+        <v>0.4846307744038075</v>
       </c>
       <c r="C445">
-        <v>0.4703467284046804</v>
+        <v>0.4703467284046806</v>
       </c>
       <c r="D445">
         <v>0.5466606089426217</v>
@@ -7936,7 +7936,7 @@
         <v>445</v>
       </c>
       <c r="B446">
-        <v>0.4846307744038076</v>
+        <v>0.4846307744038075</v>
       </c>
       <c r="C446">
         <v>0.4703467284046806</v>
@@ -7953,10 +7953,10 @@
         <v>446</v>
       </c>
       <c r="B447">
-        <v>0.4846307744038076</v>
+        <v>0.4846307744038075</v>
       </c>
       <c r="C447">
-        <v>0.4703467284046804</v>
+        <v>0.4703467284046806</v>
       </c>
       <c r="D447">
         <v>0.5466606089426217</v>
@@ -7970,16 +7970,16 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>0.8807580115014423</v>
+        <v>0.8807580115014422</v>
       </c>
       <c r="C448">
-        <v>0.882365990738381</v>
+        <v>0.8823659907383812</v>
       </c>
       <c r="D448">
         <v>0.9203768993454738</v>
       </c>
       <c r="E448">
-        <v>0.8794542988110394</v>
+        <v>0.8794542988110391</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -7987,16 +7987,16 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>0.8807580115014422</v>
+        <v>0.8807580115014421</v>
       </c>
       <c r="C449">
-        <v>0.882365990738381</v>
+        <v>0.8823659907383812</v>
       </c>
       <c r="D449">
         <v>0.9203768993454738</v>
       </c>
       <c r="E449">
-        <v>0.8794542988110393</v>
+        <v>0.8794542988110392</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -8004,16 +8004,16 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>0.8807580115014423</v>
+        <v>0.8807580115014422</v>
       </c>
       <c r="C450">
-        <v>0.882365990738381</v>
+        <v>0.8823659907383812</v>
       </c>
       <c r="D450">
         <v>0.9203768993454738</v>
       </c>
       <c r="E450">
-        <v>0.8794542988110393</v>
+        <v>0.8794542988110392</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -8021,10 +8021,10 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>0.8807580115014423</v>
+        <v>0.8807580115014422</v>
       </c>
       <c r="C451">
-        <v>0.882365990738381</v>
+        <v>0.8823659907383812</v>
       </c>
       <c r="D451">
         <v>0.9203768993454738</v>
@@ -8038,7 +8038,7 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>0.8807580115014423</v>
+        <v>0.8807580115014422</v>
       </c>
       <c r="C452">
         <v>0.882365990738381</v>
@@ -8047,7 +8047,7 @@
         <v>0.9203768993454738</v>
       </c>
       <c r="E452">
-        <v>0.8794542988110394</v>
+        <v>0.8794542988110391</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -8064,7 +8064,7 @@
         <v>0.920376899345474</v>
       </c>
       <c r="E453">
-        <v>0.8794542988110393</v>
+        <v>0.8794542988110392</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -8072,7 +8072,7 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>0.7300883923524628</v>
+        <v>0.7300883923524627</v>
       </c>
       <c r="C454">
         <v>0.7626693074686695</v>
@@ -8089,10 +8089,10 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>0.7300883923524628</v>
+        <v>0.7300883923524627</v>
       </c>
       <c r="C455">
-        <v>0.7626693074686695</v>
+        <v>0.7626693074686693</v>
       </c>
       <c r="D455">
         <v>0.8561660926058923</v>
@@ -8109,7 +8109,7 @@
         <v>0.7300883923524628</v>
       </c>
       <c r="C456">
-        <v>0.7626693074686695</v>
+        <v>0.7626693074686693</v>
       </c>
       <c r="D456">
         <v>0.8561660926058923</v>
@@ -8123,7 +8123,7 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>0.7300883923524628</v>
+        <v>0.7300883923524627</v>
       </c>
       <c r="C457">
         <v>0.7626693074686693</v>
@@ -8140,7 +8140,7 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>0.7300883923524629</v>
+        <v>0.7300883923524628</v>
       </c>
       <c r="C458">
         <v>0.7626693074686695</v>
@@ -8157,10 +8157,10 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>0.7300883923524629</v>
+        <v>0.7300883923524628</v>
       </c>
       <c r="C459">
-        <v>0.7626693074686695</v>
+        <v>0.7626693074686693</v>
       </c>
       <c r="D459">
         <v>0.8561660926058923</v>
@@ -8177,7 +8177,7 @@
         <v>0.7300883923524628</v>
       </c>
       <c r="C460">
-        <v>0.7626693074686695</v>
+        <v>0.7626693074686693</v>
       </c>
       <c r="D460">
         <v>0.8561660926058923</v>
@@ -8194,7 +8194,7 @@
         <v>0.7300883923524628</v>
       </c>
       <c r="C461">
-        <v>0.7626693074686695</v>
+        <v>0.7626693074686693</v>
       </c>
       <c r="D461">
         <v>0.8561660926058924</v>
@@ -8211,7 +8211,7 @@
         <v>0.7300883923524628</v>
       </c>
       <c r="C462">
-        <v>0.7626693074686695</v>
+        <v>0.7626693074686693</v>
       </c>
       <c r="D462">
         <v>0.8561660926058923</v>
@@ -8225,13 +8225,13 @@
         <v>462</v>
       </c>
       <c r="B463">
-        <v>0.7540093839204006</v>
+        <v>0.7540093839204005</v>
       </c>
       <c r="C463">
         <v>0.7414936345953882</v>
       </c>
       <c r="D463">
-        <v>0.8094128875447488</v>
+        <v>0.8094128875447487</v>
       </c>
       <c r="E463">
         <v>0.8085636421465874</v>
@@ -8242,7 +8242,7 @@
         <v>463</v>
       </c>
       <c r="B464">
-        <v>0.7540093839204006</v>
+        <v>0.7540093839204005</v>
       </c>
       <c r="C464">
         <v>0.7414936345953882</v>
@@ -8259,13 +8259,13 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>0.5925487994097499</v>
+        <v>0.5925487994097498</v>
       </c>
       <c r="C465">
         <v>0.5593977405392894</v>
       </c>
       <c r="D465">
-        <v>0.6406669907346928</v>
+        <v>0.6406669907346927</v>
       </c>
       <c r="E465">
         <v>0.6829203747891951</v>
@@ -8299,7 +8299,7 @@
         <v>0.7414936345953882</v>
       </c>
       <c r="D467">
-        <v>0.8094128875447488</v>
+        <v>0.8094128875447487</v>
       </c>
       <c r="E467">
         <v>0.8085636421465874</v>
@@ -8313,13 +8313,13 @@
         <v>0.8807580115014422</v>
       </c>
       <c r="C468">
-        <v>0.882365990738381</v>
+        <v>0.8823659907383812</v>
       </c>
       <c r="D468">
         <v>0.9203768993454738</v>
       </c>
       <c r="E468">
-        <v>0.8794542988110394</v>
+        <v>0.8794542988110392</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8336,7 +8336,7 @@
         <v>0.920376899345474</v>
       </c>
       <c r="E469">
-        <v>0.8794542988110393</v>
+        <v>0.8794542988110392</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8344,7 +8344,7 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>0.8807580115014424</v>
+        <v>0.8807580115014422</v>
       </c>
       <c r="C470">
         <v>0.882365990738381</v>
@@ -8353,7 +8353,7 @@
         <v>0.9203768993454738</v>
       </c>
       <c r="E470">
-        <v>0.8794542988110394</v>
+        <v>0.8794542988110392</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -8361,13 +8361,13 @@
         <v>470</v>
       </c>
       <c r="B471">
-        <v>0.7540093839204007</v>
+        <v>0.7540093839204005</v>
       </c>
       <c r="C471">
         <v>0.7414936345953883</v>
       </c>
       <c r="D471">
-        <v>0.8094128875447487</v>
+        <v>0.8094128875447486</v>
       </c>
       <c r="E471">
         <v>0.8085636421465874</v>
@@ -8398,7 +8398,7 @@
         <v>0.6112201612073068</v>
       </c>
       <c r="C473">
-        <v>0.5822626245391823</v>
+        <v>0.5822626245391824</v>
       </c>
       <c r="D473">
         <v>0.6650040871407384</v>
@@ -8418,7 +8418,7 @@
         <v>0.5822626245391824</v>
       </c>
       <c r="D474">
-        <v>0.6650040871407386</v>
+        <v>0.6650040871407384</v>
       </c>
       <c r="E474">
         <v>0.6945476807774377</v>
@@ -8435,7 +8435,7 @@
         <v>0.6238446485076335</v>
       </c>
       <c r="D475">
-        <v>0.6826325599914582</v>
+        <v>0.6826325599914581</v>
       </c>
       <c r="E475">
         <v>0.7067655295824077</v>
@@ -8452,7 +8452,7 @@
         <v>0.5085326411866781</v>
       </c>
       <c r="D476">
-        <v>0.6492096682192405</v>
+        <v>0.6492096682192404</v>
       </c>
       <c r="E476">
         <v>0.6907269653598368</v>
@@ -8469,7 +8469,7 @@
         <v>0.5085326411866781</v>
       </c>
       <c r="D477">
-        <v>0.6492096682192405</v>
+        <v>0.6492096682192404</v>
       </c>
       <c r="E477">
         <v>0.6907269653598368</v>
@@ -8489,7 +8489,7 @@
         <v>0.6205020271112497</v>
       </c>
       <c r="E478">
-        <v>0.6531169268021583</v>
+        <v>0.6531169268021582</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8497,10 +8497,10 @@
         <v>478</v>
       </c>
       <c r="B479">
-        <v>0.8063158001804377</v>
+        <v>0.8063158001804376</v>
       </c>
       <c r="C479">
-        <v>0.660019658064253</v>
+        <v>0.6600196580642529</v>
       </c>
       <c r="D479">
         <v>0.6935911077154999</v>
@@ -8514,13 +8514,13 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>0.8414357918881704</v>
+        <v>0.8414357918881702</v>
       </c>
       <c r="C480">
         <v>0.7034524402354075</v>
       </c>
       <c r="D480">
-        <v>0.7332280013733923</v>
+        <v>0.7332280013733922</v>
       </c>
       <c r="E480">
         <v>0.7652659707678581</v>
@@ -8531,7 +8531,7 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>0.7999808605870476</v>
+        <v>0.7999808605870475</v>
       </c>
       <c r="C481">
         <v>0.6183337182531078</v>
@@ -8540,7 +8540,7 @@
         <v>0.6205020271112497</v>
       </c>
       <c r="E481">
-        <v>0.6531169268021583</v>
+        <v>0.653116926802158</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -8548,7 +8548,7 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>0.7999808605870479</v>
+        <v>0.7999808605870476</v>
       </c>
       <c r="C482">
         <v>0.6183337182531078</v>
@@ -8557,7 +8557,7 @@
         <v>0.6205020271112497</v>
       </c>
       <c r="E482">
-        <v>0.6531169268021583</v>
+        <v>0.653116926802158</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -8574,7 +8574,7 @@
         <v>0.6205020271112497</v>
       </c>
       <c r="E483">
-        <v>0.6531169268021583</v>
+        <v>0.6531169268021582</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -8588,10 +8588,10 @@
         <v>0.6183337182531078</v>
       </c>
       <c r="D484">
-        <v>0.6205020271112498</v>
+        <v>0.6205020271112497</v>
       </c>
       <c r="E484">
-        <v>0.6531169268021583</v>
+        <v>0.653116926802158</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -8599,13 +8599,13 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>0.8414357918881704</v>
+        <v>0.8414357918881703</v>
       </c>
       <c r="C485">
         <v>0.7034524402354075</v>
       </c>
       <c r="D485">
-        <v>0.7332280013733923</v>
+        <v>0.7332280013733922</v>
       </c>
       <c r="E485">
         <v>0.7652659707678581</v>
@@ -8622,10 +8622,10 @@
         <v>0.6846502283005856</v>
       </c>
       <c r="D486">
-        <v>0.7159597468544745</v>
+        <v>0.7159597468544743</v>
       </c>
       <c r="E486">
-        <v>0.7522346790079893</v>
+        <v>0.7522346790079892</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -8633,16 +8633,16 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>0.8180838702445803</v>
+        <v>0.8180838702445801</v>
       </c>
       <c r="C487">
         <v>0.6617643849190771</v>
       </c>
       <c r="D487">
-        <v>0.6794274073815901</v>
+        <v>0.67942740738159</v>
       </c>
       <c r="E487">
-        <v>0.7082182391926574</v>
+        <v>0.7082182391926573</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -8659,7 +8659,7 @@
         <v>0.6901642399334351</v>
       </c>
       <c r="E488">
-        <v>0.7108074522914496</v>
+        <v>0.7108074522914495</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -8667,7 +8667,7 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>0.8227661119498142</v>
+        <v>0.8227661119498141</v>
       </c>
       <c r="C489">
         <v>0.6784136745337157</v>
@@ -8684,7 +8684,7 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>0.9635210496543176</v>
+        <v>0.9635210496543173</v>
       </c>
       <c r="C490">
         <v>0.8747113401351211</v>
@@ -8693,7 +8693,7 @@
         <v>0.8907416654042315</v>
       </c>
       <c r="E490">
-        <v>0.8775127896652519</v>
+        <v>0.8775127896652518</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -8701,13 +8701,13 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>0.9969943101007239</v>
+        <v>0.9969943101007233</v>
       </c>
       <c r="C491">
-        <v>0.9094352364897383</v>
+        <v>0.9094352364897382</v>
       </c>
       <c r="D491">
-        <v>0.9228599615124782</v>
+        <v>0.9228599615124781</v>
       </c>
       <c r="E491">
         <v>0.8894406316987631</v>
@@ -8718,7 +8718,7 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>0.9635210496543175</v>
+        <v>0.9635210496543173</v>
       </c>
       <c r="C492">
         <v>0.8747113401351211</v>
@@ -8735,7 +8735,7 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>0.9635210496543175</v>
+        <v>0.9635210496543173</v>
       </c>
       <c r="C493">
         <v>0.8747113401351211</v>
@@ -8752,7 +8752,7 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <v>0.9635210496543175</v>
+        <v>0.9635210496543173</v>
       </c>
       <c r="C494">
         <v>0.874711340135121</v>
@@ -8769,16 +8769,16 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <v>0.9570737089807837</v>
+        <v>0.9570737089807836</v>
       </c>
       <c r="C495">
-        <v>0.9246147437403328</v>
+        <v>0.9246147437403327</v>
       </c>
       <c r="D495">
-        <v>0.9555655925095379</v>
+        <v>0.9555655925095378</v>
       </c>
       <c r="E495">
-        <v>0.9122009035178514</v>
+        <v>0.9122009035178517</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -8789,7 +8789,7 @@
         <v>1.01948303406795</v>
       </c>
       <c r="C496">
-        <v>0.9876698800851825</v>
+        <v>0.9876698800851824</v>
       </c>
       <c r="D496">
         <v>0.9928833322068789</v>
@@ -8803,7 +8803,7 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>0.9570737089807837</v>
+        <v>0.9570737089807836</v>
       </c>
       <c r="C497">
         <v>0.9246147437403327</v>
@@ -8812,7 +8812,7 @@
         <v>0.9555655925095379</v>
       </c>
       <c r="E497">
-        <v>0.9122009035178514</v>
+        <v>0.9122009035178517</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -8829,7 +8829,7 @@
         <v>0.9191833249979523</v>
       </c>
       <c r="E498">
-        <v>0.870700714039856</v>
+        <v>0.8707007140398558</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -8840,13 +8840,13 @@
         <v>0.9966949583077224</v>
       </c>
       <c r="C499">
-        <v>0.9310434025427484</v>
+        <v>0.9310434025427483</v>
       </c>
       <c r="D499">
-        <v>0.9191833249979524</v>
+        <v>0.9191833249979523</v>
       </c>
       <c r="E499">
-        <v>0.870700714039856</v>
+        <v>0.8707007140398558</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -8857,13 +8857,13 @@
         <v>0.9966949583077224</v>
       </c>
       <c r="C500">
-        <v>0.9310434025427484</v>
+        <v>0.9310434025427482</v>
       </c>
       <c r="D500">
-        <v>0.9191833249979524</v>
+        <v>0.9191833249979522</v>
       </c>
       <c r="E500">
-        <v>0.8707007140398559</v>
+        <v>0.8707007140398558</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -8871,7 +8871,7 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>0.8633268881388756</v>
+        <v>0.8633268881388755</v>
       </c>
       <c r="C501">
         <v>0.709868942936581</v>
